--- a/Кейсы.xlsx
+++ b/Кейсы.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7692" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GetF" sheetId="1" r:id="rId1"/>
     <sheet name="GetArray" sheetId="2" r:id="rId2"/>
+    <sheet name="WriteToFile" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="59">
   <si>
     <t>Правильные</t>
   </si>
@@ -405,7 +406,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -521,6 +522,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -531,15 +544,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
@@ -548,12 +552,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -562,21 +581,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -684,6 +688,55 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3895725" y="1419225"/>
+          <a:ext cx="2705478" cy="457264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>924303</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66739</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E51EF270-BBFE-42AC-90EF-528436A65025}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3819525" y="1419225"/>
           <a:ext cx="2705478" cy="457264"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -965,14 +1018,14 @@
       <selection activeCell="C31" sqref="C31:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -981,7 +1034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -992,7 +1045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>15</v>
@@ -1001,7 +1054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>16</v>
@@ -1010,7 +1063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1021,7 +1074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>13</v>
@@ -1030,38 +1083,38 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="47" t="s">
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-    </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="48" t="s">
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
@@ -1073,7 +1126,7 @@
         <v>-1.0569963181903713E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
@@ -1082,161 +1135,161 @@
       </c>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="12"/>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="48" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="13">
         <v>1</v>
       </c>
-      <c r="C16" s="51"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C16" s="49"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="14">
         <v>21</v>
       </c>
-      <c r="C17" s="52"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="50"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="12"/>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="54" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="13">
         <v>12</v>
       </c>
-      <c r="C19" s="54"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="55"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="14">
         <v>21</v>
       </c>
-      <c r="C20" s="55"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="56"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="12"/>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="48" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="13">
         <v>5</v>
       </c>
-      <c r="C22" s="51"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="49"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="14">
         <v>19</v>
       </c>
-      <c r="C23" s="52"/>
-    </row>
-    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A24" s="49" t="s">
+      <c r="C23" s="50"/>
+    </row>
+    <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="12"/>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="48" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="13">
         <v>5</v>
       </c>
-      <c r="C26" s="51"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="49"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="14">
         <v>19.998999999999999</v>
       </c>
-      <c r="C27" s="52"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C27" s="50"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="12"/>
-      <c r="C28" s="50">
+      <c r="C28" s="48">
         <f>SQRT(B30-20)/(B29*B29-13*B29+12)*SIN(10)*SIN(10)</f>
         <v>-3.3425158438956819E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B29" s="13">
         <v>5</v>
       </c>
-      <c r="C29" s="51"/>
+      <c r="C29" s="49"/>
       <c r="E29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B30" s="14">
         <v>20.001000000000001</v>
       </c>
-      <c r="C30" s="52"/>
+      <c r="C30" s="50"/>
       <c r="E30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="12"/>
-      <c r="C31" s="50">
+      <c r="C31" s="48">
         <f>SQRT(B33-20)/(B32*B32-13*B32+12)*SIN(B34)*SIN(B34)</f>
         <v>-5.5555555555555552E-2</v>
       </c>
@@ -1244,31 +1297,31 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B32" s="13">
         <v>3</v>
       </c>
-      <c r="C32" s="51"/>
+      <c r="C32" s="49"/>
       <c r="E32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="13">
         <v>21</v>
       </c>
-      <c r="C33" s="51"/>
+      <c r="C33" s="49"/>
       <c r="E33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
@@ -1276,46 +1329,46 @@
         <f>PI()/2</f>
         <v>1.5707963267948966</v>
       </c>
-      <c r="C34" s="52"/>
+      <c r="C34" s="50"/>
       <c r="E34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B35" s="12"/>
-      <c r="C35" s="50">
+      <c r="C35" s="48">
         <f>SQRT(B37-20)/(B36*B36-13*B36+12)*SIN(B38)*SIN(B38)</f>
         <v>-5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="13">
         <v>3</v>
       </c>
-      <c r="C36" s="51"/>
+      <c r="C36" s="49"/>
       <c r="E36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B37" s="13">
         <v>21</v>
       </c>
-      <c r="C37" s="51"/>
+      <c r="C37" s="49"/>
       <c r="E37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>22</v>
       </c>
@@ -1323,17 +1376,17 @@
         <f>-PI()/2</f>
         <v>-1.5707963267948966</v>
       </c>
-      <c r="C38" s="52"/>
+      <c r="C38" s="50"/>
       <c r="E38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B39" s="12"/>
-      <c r="C39" s="50">
+      <c r="C39" s="48">
         <f>SQRT(B41-20)/(B40*B40-13*B40+12)*SIN(10)*SIN(10)</f>
         <v>-26.907806990940291</v>
       </c>
@@ -1341,137 +1394,137 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B40" s="13">
         <v>1.0009999999999999</v>
       </c>
-      <c r="C40" s="51"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C40" s="49"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B41" s="14">
         <v>21</v>
       </c>
-      <c r="C41" s="52"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C41" s="50"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B42" s="12"/>
-      <c r="C42" s="50">
+      <c r="C42" s="48">
         <f>SQRT(B44-20)/(B43*B43-13*B43+12)*SIN(10)*SIN(10)</f>
         <v>26.902915107108168</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B43" s="13">
         <v>0.999</v>
       </c>
-      <c r="C43" s="51"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C43" s="49"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B44" s="14">
         <v>21</v>
       </c>
-      <c r="C44" s="52"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C44" s="50"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B45" s="12"/>
-      <c r="C45" s="50">
+      <c r="C45" s="48">
         <f>SQRT(B47-20)/(B46*B46-13*B46+12)*SIN(10)*SIN(10)</f>
         <v>-26.907806991009824</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B46" s="13">
         <v>11.999000000000001</v>
       </c>
-      <c r="C46" s="51"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C46" s="49"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="14">
         <v>21</v>
       </c>
-      <c r="C47" s="52"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C47" s="50"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B48" s="12"/>
-      <c r="C48" s="50">
+      <c r="C48" s="48">
         <f>SQRT(B50-20)/(B49*B49-13*B49+12)*SIN(10)*SIN(10)</f>
         <v>26.902915107125541</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B49" s="13">
         <v>12.000999999999999</v>
       </c>
-      <c r="C49" s="51"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="49"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B50" s="14">
         <v>21</v>
       </c>
-      <c r="C50" s="52"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="50"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B51" s="12"/>
-      <c r="C51" s="50">
+      <c r="C51" s="48">
         <f>SQRT(B53-20)/(B52*B52-13*B52+12)*SIN(B54)*SIN(B54)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B52" s="13">
         <v>3</v>
       </c>
-      <c r="C52" s="51"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C52" s="49"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B53" s="13">
         <v>21</v>
       </c>
-      <c r="C53" s="51"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="49"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>22</v>
       </c>
@@ -1479,10 +1532,17 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="C54" s="52"/>
+      <c r="C54" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C21:C23"/>
     <mergeCell ref="C42:C44"/>
     <mergeCell ref="C45:C47"/>
     <mergeCell ref="C51:C54"/>
@@ -1491,13 +1551,6 @@
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="C48:C50"/>
     <mergeCell ref="C35:C38"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C21:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1509,24 +1562,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="30.5546875" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
     <col min="4" max="5" width="4" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -1535,13 +1588,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="F2" s="62" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="F2" s="57" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="21" t="s">
@@ -1551,13 +1604,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="35"/>
-      <c r="F3" s="62"/>
+      <c r="F3" s="57"/>
       <c r="G3" s="21" t="s">
         <v>16</v>
       </c>
@@ -1565,7 +1618,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>56</v>
       </c>
@@ -1586,7 +1639,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>55</v>
       </c>
@@ -1607,7 +1660,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>52</v>
       </c>
@@ -1628,7 +1681,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>20</v>
       </c>
@@ -1641,7 +1694,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
@@ -1653,456 +1706,456 @@
         <v>-3.2840563019222363E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="58" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>56</v>
       </c>
       <c r="B10" s="33">
         <v>1</v>
       </c>
-      <c r="C10" s="57"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="59"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="33">
         <v>5</v>
       </c>
-      <c r="C11" s="57"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="59"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="33">
         <v>5</v>
       </c>
-      <c r="C12" s="57"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="59"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="13">
         <v>1</v>
       </c>
-      <c r="C13" s="57"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="59"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="14">
         <v>21</v>
       </c>
-      <c r="C14" s="61"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="60"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <f>A9+1</f>
         <v>3</v>
       </c>
       <c r="B15" s="12"/>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="61" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="33">
         <v>1</v>
       </c>
-      <c r="C16" s="64"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="62"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>55</v>
       </c>
       <c r="B17" s="33">
         <v>5</v>
       </c>
-      <c r="C17" s="64"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="62"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>52</v>
       </c>
       <c r="B18" s="33">
         <v>5</v>
       </c>
-      <c r="C18" s="64"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="62"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="13">
         <v>12</v>
       </c>
-      <c r="C19" s="64"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="62"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="14">
         <v>21</v>
       </c>
-      <c r="C20" s="65"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="63"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <f>A15+1</f>
         <v>4</v>
       </c>
       <c r="B21" s="30"/>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="58" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>56</v>
       </c>
       <c r="B22" s="33">
         <v>1</v>
       </c>
-      <c r="C22" s="57"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="59"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>55</v>
       </c>
       <c r="B23" s="33">
         <v>5</v>
       </c>
-      <c r="C23" s="57"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="59"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="33">
         <v>5</v>
       </c>
-      <c r="C24" s="57"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C24" s="59"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="31">
         <v>5</v>
       </c>
-      <c r="C25" s="57"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="59"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="32">
         <v>19</v>
       </c>
-      <c r="C26" s="57"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C26" s="59"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <f>A21+1</f>
         <v>5</v>
       </c>
       <c r="B27" s="29"/>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="64" t="s">
         <v>50</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>49</v>
       </c>
       <c r="B28" s="41">
         <v>3</v>
       </c>
-      <c r="C28" s="59"/>
+      <c r="C28" s="65"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>51</v>
       </c>
       <c r="B29" s="33">
         <v>1</v>
       </c>
-      <c r="C29" s="59"/>
+      <c r="C29" s="65"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
         <v>52</v>
       </c>
       <c r="B30" s="33">
         <v>3</v>
       </c>
-      <c r="C30" s="59"/>
+      <c r="C30" s="65"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>53</v>
       </c>
       <c r="B31" s="33">
         <v>8</v>
       </c>
-      <c r="C31" s="59"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>54</v>
       </c>
       <c r="B32" s="42">
         <v>21</v>
       </c>
-      <c r="C32" s="60"/>
+      <c r="C32" s="66"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <f>A27+1</f>
         <v>6</v>
       </c>
       <c r="B33" s="29"/>
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="64" t="s">
         <v>58</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
         <v>49</v>
       </c>
       <c r="B34" s="41">
         <v>1</v>
       </c>
-      <c r="C34" s="59"/>
+      <c r="C34" s="65"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
         <v>51</v>
       </c>
       <c r="B35" s="33">
         <v>5</v>
       </c>
-      <c r="C35" s="59"/>
+      <c r="C35" s="65"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
         <v>52</v>
       </c>
       <c r="B36" s="33">
         <v>0</v>
       </c>
-      <c r="C36" s="59"/>
+      <c r="C36" s="65"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
         <v>53</v>
       </c>
       <c r="B37" s="33">
         <v>8</v>
       </c>
-      <c r="C37" s="59"/>
+      <c r="C37" s="65"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
         <v>54</v>
       </c>
       <c r="B38" s="42">
         <v>21</v>
       </c>
-      <c r="C38" s="60"/>
+      <c r="C38" s="66"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A39" s="49" t="s">
+    <row r="39" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <f>A33+1</f>
         <v>7</v>
       </c>
       <c r="B40" s="12"/>
-      <c r="C40" s="56" t="s">
+      <c r="C40" s="58" t="s">
         <v>19</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>56</v>
       </c>
       <c r="B41" s="33">
         <v>1</v>
       </c>
-      <c r="C41" s="57"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C41" s="59"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
         <v>55</v>
       </c>
       <c r="B42" s="33">
         <v>5</v>
       </c>
-      <c r="C42" s="57"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C42" s="59"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>52</v>
       </c>
       <c r="B43" s="33">
         <v>5</v>
       </c>
-      <c r="C43" s="57"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C43" s="59"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B44" s="13">
         <v>5</v>
       </c>
-      <c r="C44" s="57"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C44" s="59"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B45" s="14">
         <v>19.998999999999999</v>
       </c>
-      <c r="C45" s="61"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C45" s="60"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <f>A40+1</f>
         <v>8</v>
       </c>
       <c r="B46" s="12"/>
-      <c r="C46" s="56">
+      <c r="C46" s="58">
         <f>SQRT(B51-20)/(B50*B50-13*B50+12)*SIN(1)*SIN(1)</f>
         <v>-7.9968741155962253E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
         <v>56</v>
       </c>
       <c r="B47" s="33">
         <v>1</v>
       </c>
-      <c r="C47" s="57"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C47" s="59"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
         <v>55</v>
       </c>
       <c r="B48" s="33">
         <v>5</v>
       </c>
-      <c r="C48" s="57"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C48" s="59"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
         <v>52</v>
       </c>
       <c r="B49" s="33">
         <v>2</v>
       </c>
-      <c r="C49" s="57">
+      <c r="C49" s="59">
         <f>SQRT(B51-20)/(B50*B50-13*B50+12)*SIN(5)*SIN(5)</f>
         <v>-1.0385097878310217E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B50" s="13">
         <v>5</v>
       </c>
-      <c r="C50" s="57"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="59"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B51" s="14">
         <v>20.001000000000001</v>
       </c>
-      <c r="C51" s="61"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C51" s="60"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <f>A46+1</f>
         <v>9</v>
       </c>
       <c r="B52" s="12"/>
-      <c r="C52" s="56">
+      <c r="C52" s="58">
         <f>SQRT(B57-20)/(B56*B56-13*B56+12)*SIN(B53)*SIN(B54)</f>
         <v>-5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>56</v>
       </c>
@@ -2110,9 +2163,9 @@
         <f>PI()/2</f>
         <v>1.5707963267948966</v>
       </c>
-      <c r="C53" s="57"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="59"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
         <v>55</v>
       </c>
@@ -2120,47 +2173,47 @@
         <f>PI()/2</f>
         <v>1.5707963267948966</v>
       </c>
-      <c r="C54" s="57"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C54" s="59"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="43" t="s">
         <v>57</v>
       </c>
       <c r="B55" s="33">
         <v>1</v>
       </c>
-      <c r="C55" s="57"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C55" s="59"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B56" s="13">
         <v>3</v>
       </c>
-      <c r="C56" s="57"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C56" s="59"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B57" s="13">
         <v>21</v>
       </c>
-      <c r="C57" s="61"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C57" s="60"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <f>A52+1</f>
         <v>10</v>
       </c>
       <c r="B58" s="12"/>
-      <c r="C58" s="56">
+      <c r="C58" s="58">
         <f>SQRT(B63-20)/(B62*B62-13*B62+12)*SIN(B59)*SIN(B60)</f>
         <v>-5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
         <v>56</v>
       </c>
@@ -2168,9 +2221,9 @@
         <f>-PI()/2</f>
         <v>-1.5707963267948966</v>
       </c>
-      <c r="C59" s="57"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C59" s="59"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
         <v>55</v>
       </c>
@@ -2178,36 +2231,36 @@
         <f>-PI()/2</f>
         <v>-1.5707963267948966</v>
       </c>
-      <c r="C60" s="57"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C60" s="59"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
         <v>57</v>
       </c>
       <c r="B61" s="33">
         <v>1</v>
       </c>
-      <c r="C61" s="57"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C61" s="59"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B62" s="13">
         <v>3</v>
       </c>
-      <c r="C62" s="57"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C62" s="59"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B63" s="13">
         <v>21</v>
       </c>
-      <c r="C63" s="61"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C63" s="60"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
         <f>A58+1</f>
         <v>11</v>
@@ -2215,7 +2268,7 @@
       <c r="B64" s="12"/>
       <c r="C64" s="46"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="26" t="s">
         <v>56</v>
       </c>
@@ -2227,7 +2280,7 @@
         <v>-64.376163130619759</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="26" t="s">
         <v>55</v>
       </c>
@@ -2239,7 +2292,7 @@
         <v>-75.172452989539138</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
         <v>57</v>
       </c>
@@ -2251,7 +2304,7 @@
         <v>-1.8106061164487897</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>20</v>
       </c>
@@ -2263,7 +2316,7 @@
         <v>-52.072917256514238</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>21</v>
       </c>
@@ -2275,7 +2328,7 @@
         <v>-83.601760572631719</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <f>A64+1</f>
         <v>12</v>
@@ -2283,7 +2336,7 @@
       <c r="B70" s="12"/>
       <c r="C70" s="44"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="26" t="s">
         <v>56</v>
       </c>
@@ -2295,7 +2348,7 @@
         <v>64.364459437646985</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="26" t="s">
         <v>55</v>
       </c>
@@ -2307,7 +2360,7 @@
         <v>75.15878651320665</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
         <v>57</v>
       </c>
@@ -2319,7 +2372,7 @@
         <v>1.8102769452610232</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>20</v>
       </c>
@@ -2331,7 +2384,7 @@
         <v>52.063450313998104</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>21</v>
       </c>
@@ -2343,7 +2396,7 @@
         <v>83.586561634233661</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="16">
         <f>A70+1</f>
         <v>13</v>
@@ -2351,7 +2404,7 @@
       <c r="B76" s="12"/>
       <c r="C76" s="44"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="26" t="s">
         <v>56</v>
       </c>
@@ -2363,7 +2416,7 @@
         <v>-64.376163130786111</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="26" t="s">
         <v>55</v>
       </c>
@@ -2375,7 +2428,7 @@
         <v>-75.172452989733387</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="26" t="s">
         <v>57</v>
       </c>
@@ -2387,7 +2440,7 @@
         <v>-1.8106061164534684</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>20</v>
       </c>
@@ -2399,7 +2452,7 @@
         <v>-52.072917256648807</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>21</v>
       </c>
@@ -2411,7 +2464,7 @@
         <v>-83.601760572847752</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="16">
         <f>A76+1</f>
         <v>14</v>
@@ -2419,7 +2472,7 @@
       <c r="B82" s="12"/>
       <c r="C82" s="44"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="26" t="s">
         <v>56</v>
       </c>
@@ -2431,7 +2484,7 @@
         <v>64.364459437688552</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="26" t="s">
         <v>55</v>
       </c>
@@ -2443,7 +2496,7 @@
         <v>75.158786513255194</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
         <v>57</v>
       </c>
@@ -2455,7 +2508,7 @@
         <v>1.8102769452621923</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>20</v>
       </c>
@@ -2467,7 +2520,7 @@
         <v>52.063450314031726</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>21</v>
       </c>
@@ -2479,18 +2532,18 @@
         <v>83.586561634287634</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="16">
         <f>A82+1</f>
         <v>15</v>
       </c>
       <c r="B88" s="12"/>
-      <c r="C88" s="56">
+      <c r="C88" s="58">
         <f>SQRT(B93-20)/(B92*B92-13*B92+12)*SIN(B89)*SIN(B89)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
         <v>56</v>
       </c>
@@ -2498,51 +2551,46 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="C89" s="57"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C89" s="59"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
         <v>55</v>
       </c>
       <c r="B90" s="33">
         <v>0</v>
       </c>
-      <c r="C90" s="57"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C90" s="59"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
         <v>57</v>
       </c>
       <c r="B91" s="33">
         <v>1</v>
       </c>
-      <c r="C91" s="57"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C91" s="59"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B92" s="13">
         <v>3</v>
       </c>
-      <c r="C92" s="57"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C92" s="59"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B93" s="32">
         <v>21</v>
       </c>
-      <c r="C93" s="61"/>
+      <c r="C93" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="C15:C20"/>
     <mergeCell ref="C21:C26"/>
     <mergeCell ref="C27:C32"/>
     <mergeCell ref="C88:C93"/>
@@ -2553,9 +2601,1068 @@
     <mergeCell ref="C46:C48"/>
     <mergeCell ref="C49:C51"/>
     <mergeCell ref="C33:C38"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="C15:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="4" max="5" width="4" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="F2" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="35"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="33">
+        <v>1</v>
+      </c>
+      <c r="C4" s="36">
+        <f>SQRT($B$8-20)/($B$7*$B$7-13*$B$7+12)*SIN(1)*SIN(1)</f>
+        <v>-2.5288336366913255E-2</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="33">
+        <v>5</v>
+      </c>
+      <c r="C5" s="36">
+        <f>SQRT($B$8-20)/($B$7*$B$7-13*$B$7+12)*SIN(2)*SIN(2)</f>
+        <v>-2.9529350372564496E-2</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="33">
+        <v>5</v>
+      </c>
+      <c r="C6" s="36">
+        <f>SQRT($B$8-20)/($B$7*$B$7-13*$B$7+12)*SIN(3)*SIN(3)</f>
+        <v>-7.1124488124346382E-4</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="18">
+        <v>8</v>
+      </c>
+      <c r="C7" s="37">
+        <f>SQRT($B$8-20)/($B$7*$B$7-13*$B$7+12)*SIN(4)*SIN(4)</f>
+        <v>-2.045535774658238E-2</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="11">
+        <v>21</v>
+      </c>
+      <c r="C8" s="38">
+        <f>SQRT($B$8-20)/($B$7*$B$7-13*$B$7+12)*SIN(5)*SIN(5)</f>
+        <v>-3.2840563019222363E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <f>A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="33">
+        <v>1</v>
+      </c>
+      <c r="C10" s="59"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="33">
+        <v>5</v>
+      </c>
+      <c r="C11" s="59"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="33">
+        <v>5</v>
+      </c>
+      <c r="C12" s="59"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="59"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="14">
+        <v>21</v>
+      </c>
+      <c r="C14" s="60"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <f>A9+1</f>
+        <v>3</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="33">
+        <v>1</v>
+      </c>
+      <c r="C16" s="62"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="33">
+        <v>5</v>
+      </c>
+      <c r="C17" s="62"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="33">
+        <v>5</v>
+      </c>
+      <c r="C18" s="62"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="13">
+        <v>12</v>
+      </c>
+      <c r="C19" s="62"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="14">
+        <v>21</v>
+      </c>
+      <c r="C20" s="63"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <f>A15+1</f>
+        <v>4</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="33">
+        <v>1</v>
+      </c>
+      <c r="C22" s="59"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="33">
+        <v>5</v>
+      </c>
+      <c r="C23" s="59"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="33">
+        <v>5</v>
+      </c>
+      <c r="C24" s="59"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="31">
+        <v>5</v>
+      </c>
+      <c r="C25" s="59"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="32">
+        <v>19</v>
+      </c>
+      <c r="C26" s="59"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
+        <f>A21+1</f>
+        <v>5</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="41">
+        <v>3</v>
+      </c>
+      <c r="C28" s="65"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="33">
+        <v>1</v>
+      </c>
+      <c r="C29" s="65"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="33">
+        <v>3</v>
+      </c>
+      <c r="C30" s="65"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="33">
+        <v>8</v>
+      </c>
+      <c r="C31" s="65"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="42">
+        <v>21</v>
+      </c>
+      <c r="C32" s="66"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
+        <f>A27+1</f>
+        <v>6</v>
+      </c>
+      <c r="B33" s="29"/>
+      <c r="C33" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="41">
+        <v>1</v>
+      </c>
+      <c r="C34" s="65"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="33">
+        <v>5</v>
+      </c>
+      <c r="C35" s="65"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="33">
+        <v>0</v>
+      </c>
+      <c r="C36" s="65"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="33">
+        <v>8</v>
+      </c>
+      <c r="C37" s="65"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="42">
+        <v>21</v>
+      </c>
+      <c r="C38" s="66"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="16">
+        <f>A33+1</f>
+        <v>7</v>
+      </c>
+      <c r="B40" s="12"/>
+      <c r="C40" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="33">
+        <v>1</v>
+      </c>
+      <c r="C41" s="59"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="33">
+        <v>5</v>
+      </c>
+      <c r="C42" s="59"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="33">
+        <v>5</v>
+      </c>
+      <c r="C43" s="59"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="13">
+        <v>5</v>
+      </c>
+      <c r="C44" s="59"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="14">
+        <v>19.998999999999999</v>
+      </c>
+      <c r="C45" s="60"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="16">
+        <f>A40+1</f>
+        <v>8</v>
+      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="58">
+        <f>SQRT(B51-20)/(B50*B50-13*B50+12)*SIN(1)*SIN(1)</f>
+        <v>-7.9968741155962253E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="33">
+        <v>1</v>
+      </c>
+      <c r="C47" s="59"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="33">
+        <v>5</v>
+      </c>
+      <c r="C48" s="59"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="33">
+        <v>2</v>
+      </c>
+      <c r="C49" s="59">
+        <f>SQRT(B51-20)/(B50*B50-13*B50+12)*SIN(5)*SIN(5)</f>
+        <v>-1.0385097878310217E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="13">
+        <v>5</v>
+      </c>
+      <c r="C50" s="59"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="14">
+        <v>20.001000000000001</v>
+      </c>
+      <c r="C51" s="60"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="16">
+        <f>A46+1</f>
+        <v>9</v>
+      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="58">
+        <f>SQRT(B57-20)/(B56*B56-13*B56+12)*SIN(B53)*SIN(B54)</f>
+        <v>-5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="34">
+        <f>PI()/2</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="C53" s="59"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="34">
+        <f>PI()/2</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="C54" s="59"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="33">
+        <v>1</v>
+      </c>
+      <c r="C55" s="59"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="13">
+        <v>3</v>
+      </c>
+      <c r="C56" s="59"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="13">
+        <v>21</v>
+      </c>
+      <c r="C57" s="60"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="16">
+        <f>A52+1</f>
+        <v>10</v>
+      </c>
+      <c r="B58" s="12"/>
+      <c r="C58" s="58">
+        <f>SQRT(B63-20)/(B62*B62-13*B62+12)*SIN(B59)*SIN(B60)</f>
+        <v>-5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="33">
+        <f>-PI()/2</f>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="C59" s="59"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="33">
+        <f>-PI()/2</f>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="C60" s="59"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="33">
+        <v>1</v>
+      </c>
+      <c r="C61" s="59"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="13">
+        <v>3</v>
+      </c>
+      <c r="C62" s="59"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" s="13">
+        <v>21</v>
+      </c>
+      <c r="C63" s="60"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="16">
+        <f>A58+1</f>
+        <v>11</v>
+      </c>
+      <c r="B64" s="12"/>
+      <c r="C64" s="46"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" s="33">
+        <v>1</v>
+      </c>
+      <c r="C65" s="45">
+        <f>SQRT($B$69-20)/($B$68*$B$68-13*$B$68+12)*SIN(1)*SIN(1)</f>
+        <v>-64.376163130619759</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" s="33">
+        <v>5</v>
+      </c>
+      <c r="C66" s="45">
+        <f>SQRT($B$69-20)/($B$68*$B$68-13*$B$68+12)*SIN(2)*SIN(2)</f>
+        <v>-75.172452989539138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="33">
+        <v>5</v>
+      </c>
+      <c r="C67" s="45">
+        <f>SQRT($B$69-20)/($B$68*$B$68-13*$B$68+12)*SIN(3)*SIN(3)</f>
+        <v>-1.8106061164487897</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="13">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="C68" s="45">
+        <f>SQRT($B$69-20)/($B$68*$B$68-13*$B$68+12)*SIN(4)*SIN(4)</f>
+        <v>-52.072917256514238</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" s="14">
+        <v>21</v>
+      </c>
+      <c r="C69" s="45">
+        <f>SQRT($B$69-20)/($B$68*$B$68-13*$B$68+12)*SIN(5)*SIN(5)</f>
+        <v>-83.601760572631719</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="16">
+        <f>A64+1</f>
+        <v>12</v>
+      </c>
+      <c r="B70" s="12"/>
+      <c r="C70" s="44"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B71" s="33">
+        <v>1</v>
+      </c>
+      <c r="C71" s="45">
+        <f>SQRT($B$75-20)/($B$74*$B$74-13*$B$74+12)*SIN(1)*SIN(1)</f>
+        <v>64.364459437646985</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="33">
+        <v>5</v>
+      </c>
+      <c r="C72" s="45">
+        <f>SQRT($B$75-20)/($B$74*$B$74-13*$B$74+12)*SIN(2)*SIN(2)</f>
+        <v>75.15878651320665</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B73" s="33">
+        <v>5</v>
+      </c>
+      <c r="C73" s="45">
+        <f>SQRT($B$75-20)/($B$74*$B$74-13*$B$74+12)*SIN(3)*SIN(3)</f>
+        <v>1.8102769452610232</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" s="13">
+        <v>0.999</v>
+      </c>
+      <c r="C74" s="45">
+        <f>SQRT($B$75-20)/($B$74*$B$74-13*$B$74+12)*SIN(4)*SIN(4)</f>
+        <v>52.063450313998104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" s="14">
+        <v>21</v>
+      </c>
+      <c r="C75" s="45">
+        <f>SQRT($B$75-20)/($B$74*$B$74-13*$B$74+12)*SIN(5)*SIN(5)</f>
+        <v>83.586561634233661</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="16">
+        <f>A70+1</f>
+        <v>13</v>
+      </c>
+      <c r="B76" s="12"/>
+      <c r="C76" s="44"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B77" s="33">
+        <v>1</v>
+      </c>
+      <c r="C77" s="45">
+        <f>SQRT($B$81-20)/($B$80*$B$80-13*$B$80+12)*SIN(1)*SIN(1)</f>
+        <v>-64.376163130786111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B78" s="33">
+        <v>5</v>
+      </c>
+      <c r="C78" s="45">
+        <f>SQRT($B$81-20)/($B$80*$B$80-13*$B$80+12)*SIN(2)*SIN(2)</f>
+        <v>-75.172452989733387</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B79" s="33">
+        <v>5</v>
+      </c>
+      <c r="C79" s="45">
+        <f>SQRT($B$81-20)/($B$80*$B$80-13*$B$80+12)*SIN(3)*SIN(3)</f>
+        <v>-1.8106061164534684</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" s="13">
+        <v>11.999000000000001</v>
+      </c>
+      <c r="C80" s="45">
+        <f>SQRT($B$81-20)/($B$80*$B$80-13*$B$80+12)*SIN(4)*SIN(4)</f>
+        <v>-52.072917256648807</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" s="14">
+        <v>21</v>
+      </c>
+      <c r="C81" s="45">
+        <f>SQRT($B$81-20)/($B$80*$B$80-13*$B$80+12)*SIN(5)*SIN(5)</f>
+        <v>-83.601760572847752</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="16">
+        <f>A76+1</f>
+        <v>14</v>
+      </c>
+      <c r="B82" s="12"/>
+      <c r="C82" s="44"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B83" s="33">
+        <v>1</v>
+      </c>
+      <c r="C83" s="45">
+        <f>SQRT($B$87-20)/($B$86*$B$86-13*$B$86+12)*SIN(1)*SIN(1)</f>
+        <v>64.364459437688552</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B84" s="33">
+        <v>5</v>
+      </c>
+      <c r="C84" s="45">
+        <f>SQRT($B$87-20)/($B$86*$B$86-13*$B$86+12)*SIN(2)*SIN(2)</f>
+        <v>75.158786513255194</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B85" s="33">
+        <v>5</v>
+      </c>
+      <c r="C85" s="45">
+        <f>SQRT($B$87-20)/($B$86*$B$86-13*$B$86+12)*SIN(3)*SIN(3)</f>
+        <v>1.8102769452621923</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" s="13">
+        <v>12.000999999999999</v>
+      </c>
+      <c r="C86" s="45">
+        <f>SQRT($B$87-20)/($B$86*$B$86-13*$B$86+12)*SIN(4)*SIN(4)</f>
+        <v>52.063450314031726</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87" s="14">
+        <v>21</v>
+      </c>
+      <c r="C87" s="45">
+        <f>SQRT($B$87-20)/($B$86*$B$86-13*$B$86+12)*SIN(5)*SIN(5)</f>
+        <v>83.586561634287634</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="16">
+        <f>A82+1</f>
+        <v>15</v>
+      </c>
+      <c r="B88" s="12"/>
+      <c r="C88" s="58">
+        <f>SQRT(B93-20)/(B92*B92-13*B92+12)*SIN(B89)*SIN(B89)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89" s="33">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C89" s="59"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B90" s="33">
+        <v>0</v>
+      </c>
+      <c r="C90" s="59"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B91" s="33">
+        <v>1</v>
+      </c>
+      <c r="C91" s="59"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B92" s="13">
+        <v>3</v>
+      </c>
+      <c r="C92" s="59"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" s="32">
+        <v>21</v>
+      </c>
+      <c r="C93" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="C88:C93"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="C21:C26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Кейсы.xlsx
+++ b/Кейсы.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="GetF" sheetId="1" r:id="rId1"/>
     <sheet name="GetArray" sheetId="2" r:id="rId2"/>
-    <sheet name="WriteToFile" sheetId="3" r:id="rId3"/>
+    <sheet name="WriteToFile" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="99">
   <si>
     <t>Правильные</t>
   </si>
@@ -203,13 +203,133 @@
   </si>
   <si>
     <t>n должен быть больше, либо равен единице</t>
+  </si>
+  <si>
+    <t>правильные</t>
+  </si>
+  <si>
+    <t>неправильные</t>
+  </si>
+  <si>
+    <t>Имя файла не содержит символы: &lt;, &gt;, ", /, \, |, ?, *</t>
+  </si>
+  <si>
+    <t>Имя файла содержит символы: &lt;, &gt;, ", /, \, |, ?, *</t>
+  </si>
+  <si>
+    <t>Имя файла не должно быть пустым</t>
+  </si>
+  <si>
+    <t>Имя файла не содержит ни одного символа</t>
+  </si>
+  <si>
+    <t>Имя файла корректное</t>
+  </si>
+  <si>
+    <t>Имя файла не корректное</t>
+  </si>
+  <si>
+    <t>путь к файлу существует</t>
+  </si>
+  <si>
+    <t>путь к файлу не существует</t>
+  </si>
+  <si>
+    <t>Не передан массив данных</t>
+  </si>
+  <si>
+    <t>№ 1</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Файл успешно записан</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5]</t>
+  </si>
+  <si>
+    <t>Некоректное имя файла</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>C:\Program Files\test.txt</t>
+  </si>
+  <si>
+    <t>C:\Program Files\aw.txt</t>
+  </si>
+  <si>
+    <t>C:\Program Files\еу*.txt</t>
+  </si>
+  <si>
+    <t>C:\Program Files\еу&lt;.txt</t>
+  </si>
+  <si>
+    <t>C:\Program Files\еу&gt;.txt</t>
+  </si>
+  <si>
+    <t>C:\Program Files\еу?.txt</t>
+  </si>
+  <si>
+    <t>C:\Program Files\еу/.txt</t>
+  </si>
+  <si>
+    <t>C:\Program Files\еу\.txt</t>
+  </si>
+  <si>
+    <t>C:\Program Files\еу|.txt</t>
+  </si>
+  <si>
+    <t>C:\Program Files\a.txt</t>
+  </si>
+  <si>
+    <t>Z:\Program Files\aw.txt</t>
+  </si>
+  <si>
+    <t>Путь не существует</t>
+  </si>
+  <si>
+    <t>Метка тома не существует</t>
+  </si>
+  <si>
+    <t>№14</t>
+  </si>
+  <si>
+    <t>C:\a\b\c\d\aw.txt</t>
+  </si>
+  <si>
+    <t>Сообщение</t>
+  </si>
+  <si>
+    <t>Некорретное имя файла</t>
+  </si>
+  <si>
+    <t>C:\Program Files\aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa.txt</t>
+  </si>
+  <si>
+    <t>Пояснение</t>
+  </si>
+  <si>
+    <t>Сумма длины имени и расширения больше 260</t>
+  </si>
+  <si>
+    <t>Допускаем что пути \a\b\c\d нет</t>
+  </si>
+  <si>
+    <t>Запрещенный символ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +355,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -406,7 +535,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -522,48 +651,54 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -573,13 +708,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -688,55 +830,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3895725" y="1419225"/>
-          <a:ext cx="2705478" cy="457264"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>924303</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66739</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E51EF270-BBFE-42AC-90EF-528436A65025}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3819525" y="1419225"/>
           <a:ext cx="2705478" cy="457264"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1094,18 +1187,18 @@
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
     </row>
     <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1140,7 +1233,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="12"/>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="50" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1151,7 +1244,7 @@
       <c r="B16" s="13">
         <v>1</v>
       </c>
-      <c r="C16" s="49"/>
+      <c r="C16" s="51"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
@@ -1160,14 +1253,14 @@
       <c r="B17" s="14">
         <v>21</v>
       </c>
-      <c r="C17" s="50"/>
+      <c r="C17" s="52"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="12"/>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="53" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1178,7 +1271,7 @@
       <c r="B19" s="13">
         <v>12</v>
       </c>
-      <c r="C19" s="55"/>
+      <c r="C19" s="54"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
@@ -1187,14 +1280,14 @@
       <c r="B20" s="14">
         <v>21</v>
       </c>
-      <c r="C20" s="56"/>
+      <c r="C20" s="55"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="12"/>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="50" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1205,7 +1298,7 @@
       <c r="B22" s="13">
         <v>5</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="51"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
@@ -1214,21 +1307,21 @@
       <c r="B23" s="14">
         <v>19</v>
       </c>
-      <c r="C23" s="50"/>
+      <c r="C23" s="52"/>
     </row>
     <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="12"/>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="50" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1239,7 +1332,7 @@
       <c r="B26" s="13">
         <v>5</v>
       </c>
-      <c r="C26" s="49"/>
+      <c r="C26" s="51"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
@@ -1248,14 +1341,14 @@
       <c r="B27" s="14">
         <v>19.998999999999999</v>
       </c>
-      <c r="C27" s="50"/>
+      <c r="C27" s="52"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="12"/>
-      <c r="C28" s="48">
+      <c r="C28" s="50">
         <f>SQRT(B30-20)/(B29*B29-13*B29+12)*SIN(10)*SIN(10)</f>
         <v>-3.3425158438956819E-4</v>
       </c>
@@ -1267,7 +1360,7 @@
       <c r="B29" s="13">
         <v>5</v>
       </c>
-      <c r="C29" s="49"/>
+      <c r="C29" s="51"/>
       <c r="E29" t="s">
         <v>41</v>
       </c>
@@ -1279,7 +1372,7 @@
       <c r="B30" s="14">
         <v>20.001000000000001</v>
       </c>
-      <c r="C30" s="50"/>
+      <c r="C30" s="52"/>
       <c r="E30" t="s">
         <v>32</v>
       </c>
@@ -1289,7 +1382,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="12"/>
-      <c r="C31" s="48">
+      <c r="C31" s="50">
         <f>SQRT(B33-20)/(B32*B32-13*B32+12)*SIN(B34)*SIN(B34)</f>
         <v>-5.5555555555555552E-2</v>
       </c>
@@ -1304,7 +1397,7 @@
       <c r="B32" s="13">
         <v>3</v>
       </c>
-      <c r="C32" s="49"/>
+      <c r="C32" s="51"/>
       <c r="E32" t="s">
         <v>34</v>
       </c>
@@ -1316,7 +1409,7 @@
       <c r="B33" s="13">
         <v>21</v>
       </c>
-      <c r="C33" s="49"/>
+      <c r="C33" s="51"/>
       <c r="E33" t="s">
         <v>35</v>
       </c>
@@ -1329,7 +1422,7 @@
         <f>PI()/2</f>
         <v>1.5707963267948966</v>
       </c>
-      <c r="C34" s="50"/>
+      <c r="C34" s="52"/>
       <c r="E34" t="s">
         <v>36</v>
       </c>
@@ -1339,7 +1432,7 @@
         <v>26</v>
       </c>
       <c r="B35" s="12"/>
-      <c r="C35" s="48">
+      <c r="C35" s="50">
         <f>SQRT(B37-20)/(B36*B36-13*B36+12)*SIN(B38)*SIN(B38)</f>
         <v>-5.5555555555555552E-2</v>
       </c>
@@ -1351,7 +1444,7 @@
       <c r="B36" s="13">
         <v>3</v>
       </c>
-      <c r="C36" s="49"/>
+      <c r="C36" s="51"/>
       <c r="E36" t="s">
         <v>37</v>
       </c>
@@ -1363,7 +1456,7 @@
       <c r="B37" s="13">
         <v>21</v>
       </c>
-      <c r="C37" s="49"/>
+      <c r="C37" s="51"/>
       <c r="E37" t="s">
         <v>38</v>
       </c>
@@ -1376,7 +1469,7 @@
         <f>-PI()/2</f>
         <v>-1.5707963267948966</v>
       </c>
-      <c r="C38" s="50"/>
+      <c r="C38" s="52"/>
       <c r="E38" t="s">
         <v>39</v>
       </c>
@@ -1386,7 +1479,7 @@
         <v>27</v>
       </c>
       <c r="B39" s="12"/>
-      <c r="C39" s="48">
+      <c r="C39" s="50">
         <f>SQRT(B41-20)/(B40*B40-13*B40+12)*SIN(10)*SIN(10)</f>
         <v>-26.907806990940291</v>
       </c>
@@ -1401,7 +1494,7 @@
       <c r="B40" s="13">
         <v>1.0009999999999999</v>
       </c>
-      <c r="C40" s="49"/>
+      <c r="C40" s="51"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
@@ -1410,14 +1503,14 @@
       <c r="B41" s="14">
         <v>21</v>
       </c>
-      <c r="C41" s="50"/>
+      <c r="C41" s="52"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B42" s="12"/>
-      <c r="C42" s="48">
+      <c r="C42" s="50">
         <f>SQRT(B44-20)/(B43*B43-13*B43+12)*SIN(10)*SIN(10)</f>
         <v>26.902915107108168</v>
       </c>
@@ -1429,7 +1522,7 @@
       <c r="B43" s="13">
         <v>0.999</v>
       </c>
-      <c r="C43" s="49"/>
+      <c r="C43" s="51"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
@@ -1438,14 +1531,14 @@
       <c r="B44" s="14">
         <v>21</v>
       </c>
-      <c r="C44" s="50"/>
+      <c r="C44" s="52"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B45" s="12"/>
-      <c r="C45" s="48">
+      <c r="C45" s="50">
         <f>SQRT(B47-20)/(B46*B46-13*B46+12)*SIN(10)*SIN(10)</f>
         <v>-26.907806991009824</v>
       </c>
@@ -1457,7 +1550,7 @@
       <c r="B46" s="13">
         <v>11.999000000000001</v>
       </c>
-      <c r="C46" s="49"/>
+      <c r="C46" s="51"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
@@ -1466,14 +1559,14 @@
       <c r="B47" s="14">
         <v>21</v>
       </c>
-      <c r="C47" s="50"/>
+      <c r="C47" s="52"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B48" s="12"/>
-      <c r="C48" s="48">
+      <c r="C48" s="50">
         <f>SQRT(B50-20)/(B49*B49-13*B49+12)*SIN(10)*SIN(10)</f>
         <v>26.902915107125541</v>
       </c>
@@ -1485,7 +1578,7 @@
       <c r="B49" s="13">
         <v>12.000999999999999</v>
       </c>
-      <c r="C49" s="49"/>
+      <c r="C49" s="51"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
@@ -1494,14 +1587,14 @@
       <c r="B50" s="14">
         <v>21</v>
       </c>
-      <c r="C50" s="50"/>
+      <c r="C50" s="52"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B51" s="12"/>
-      <c r="C51" s="48">
+      <c r="C51" s="50">
         <f>SQRT(B53-20)/(B52*B52-13*B52+12)*SIN(B54)*SIN(B54)</f>
         <v>0</v>
       </c>
@@ -1513,7 +1606,7 @@
       <c r="B52" s="13">
         <v>3</v>
       </c>
-      <c r="C52" s="49"/>
+      <c r="C52" s="51"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
@@ -1522,7 +1615,7 @@
       <c r="B53" s="13">
         <v>21</v>
       </c>
-      <c r="C53" s="49"/>
+      <c r="C53" s="51"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
@@ -1532,17 +1625,10 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="C54" s="50"/>
+      <c r="C54" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C21:C23"/>
     <mergeCell ref="C42:C44"/>
     <mergeCell ref="C45:C47"/>
     <mergeCell ref="C51:C54"/>
@@ -1551,6 +1637,13 @@
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="C48:C50"/>
     <mergeCell ref="C35:C38"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C21:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1575,11 +1668,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -1589,12 +1682,12 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="F2" s="57" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="F2" s="62" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="21" t="s">
@@ -1610,7 +1703,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="35"/>
-      <c r="F3" s="57"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="21" t="s">
         <v>16</v>
       </c>
@@ -1712,7 +1805,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="56" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1723,7 +1816,7 @@
       <c r="B10" s="33">
         <v>1</v>
       </c>
-      <c r="C10" s="59"/>
+      <c r="C10" s="57"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
@@ -1732,7 +1825,7 @@
       <c r="B11" s="33">
         <v>5</v>
       </c>
-      <c r="C11" s="59"/>
+      <c r="C11" s="57"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
@@ -1741,7 +1834,7 @@
       <c r="B12" s="33">
         <v>5</v>
       </c>
-      <c r="C12" s="59"/>
+      <c r="C12" s="57"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -1750,7 +1843,7 @@
       <c r="B13" s="13">
         <v>1</v>
       </c>
-      <c r="C13" s="59"/>
+      <c r="C13" s="57"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -1759,7 +1852,7 @@
       <c r="B14" s="14">
         <v>21</v>
       </c>
-      <c r="C14" s="60"/>
+      <c r="C14" s="61"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
@@ -1767,7 +1860,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="12"/>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="63" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1778,7 +1871,7 @@
       <c r="B16" s="33">
         <v>1</v>
       </c>
-      <c r="C16" s="62"/>
+      <c r="C16" s="64"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
@@ -1787,7 +1880,7 @@
       <c r="B17" s="33">
         <v>5</v>
       </c>
-      <c r="C17" s="62"/>
+      <c r="C17" s="64"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
@@ -1796,7 +1889,7 @@
       <c r="B18" s="33">
         <v>5</v>
       </c>
-      <c r="C18" s="62"/>
+      <c r="C18" s="64"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
@@ -1805,7 +1898,7 @@
       <c r="B19" s="13">
         <v>12</v>
       </c>
-      <c r="C19" s="62"/>
+      <c r="C19" s="64"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
@@ -1814,7 +1907,7 @@
       <c r="B20" s="14">
         <v>21</v>
       </c>
-      <c r="C20" s="63"/>
+      <c r="C20" s="65"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
@@ -1822,7 +1915,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="30"/>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="56" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1833,7 +1926,7 @@
       <c r="B22" s="33">
         <v>1</v>
       </c>
-      <c r="C22" s="59"/>
+      <c r="C22" s="57"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
@@ -1842,7 +1935,7 @@
       <c r="B23" s="33">
         <v>5</v>
       </c>
-      <c r="C23" s="59"/>
+      <c r="C23" s="57"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
@@ -1851,7 +1944,7 @@
       <c r="B24" s="33">
         <v>5</v>
       </c>
-      <c r="C24" s="59"/>
+      <c r="C24" s="57"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
@@ -1860,7 +1953,7 @@
       <c r="B25" s="31">
         <v>5</v>
       </c>
-      <c r="C25" s="59"/>
+      <c r="C25" s="57"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
@@ -1869,7 +1962,7 @@
       <c r="B26" s="32">
         <v>19</v>
       </c>
-      <c r="C26" s="59"/>
+      <c r="C26" s="57"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
@@ -1877,7 +1970,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="29"/>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="58" t="s">
         <v>50</v>
       </c>
       <c r="D27" s="1"/>
@@ -1891,7 +1984,7 @@
       <c r="B28" s="41">
         <v>3</v>
       </c>
-      <c r="C28" s="65"/>
+      <c r="C28" s="59"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1903,7 +1996,7 @@
       <c r="B29" s="33">
         <v>1</v>
       </c>
-      <c r="C29" s="65"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1915,7 +2008,7 @@
       <c r="B30" s="33">
         <v>3</v>
       </c>
-      <c r="C30" s="65"/>
+      <c r="C30" s="59"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1927,7 +2020,7 @@
       <c r="B31" s="33">
         <v>8</v>
       </c>
-      <c r="C31" s="65"/>
+      <c r="C31" s="59"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1939,7 +2032,7 @@
       <c r="B32" s="42">
         <v>21</v>
       </c>
-      <c r="C32" s="66"/>
+      <c r="C32" s="60"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1950,7 +2043,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="29"/>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="58" t="s">
         <v>58</v>
       </c>
       <c r="D33" s="1"/>
@@ -1964,7 +2057,7 @@
       <c r="B34" s="41">
         <v>1</v>
       </c>
-      <c r="C34" s="65"/>
+      <c r="C34" s="59"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1976,7 +2069,7 @@
       <c r="B35" s="33">
         <v>5</v>
       </c>
-      <c r="C35" s="65"/>
+      <c r="C35" s="59"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1988,7 +2081,7 @@
       <c r="B36" s="33">
         <v>0</v>
       </c>
-      <c r="C36" s="65"/>
+      <c r="C36" s="59"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2000,7 +2093,7 @@
       <c r="B37" s="33">
         <v>8</v>
       </c>
-      <c r="C37" s="65"/>
+      <c r="C37" s="59"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2012,17 +2105,17 @@
       <c r="B38" s="42">
         <v>21</v>
       </c>
-      <c r="C38" s="66"/>
+      <c r="C38" s="60"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2033,7 +2126,7 @@
         <v>7</v>
       </c>
       <c r="B40" s="12"/>
-      <c r="C40" s="58" t="s">
+      <c r="C40" s="56" t="s">
         <v>19</v>
       </c>
       <c r="D40" s="1"/>
@@ -2047,7 +2140,7 @@
       <c r="B41" s="33">
         <v>1</v>
       </c>
-      <c r="C41" s="59"/>
+      <c r="C41" s="57"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
@@ -2056,7 +2149,7 @@
       <c r="B42" s="33">
         <v>5</v>
       </c>
-      <c r="C42" s="59"/>
+      <c r="C42" s="57"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
@@ -2065,7 +2158,7 @@
       <c r="B43" s="33">
         <v>5</v>
       </c>
-      <c r="C43" s="59"/>
+      <c r="C43" s="57"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
@@ -2074,7 +2167,7 @@
       <c r="B44" s="13">
         <v>5</v>
       </c>
-      <c r="C44" s="59"/>
+      <c r="C44" s="57"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
@@ -2083,7 +2176,7 @@
       <c r="B45" s="14">
         <v>19.998999999999999</v>
       </c>
-      <c r="C45" s="60"/>
+      <c r="C45" s="61"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
@@ -2091,7 +2184,7 @@
         <v>8</v>
       </c>
       <c r="B46" s="12"/>
-      <c r="C46" s="58">
+      <c r="C46" s="56">
         <f>SQRT(B51-20)/(B50*B50-13*B50+12)*SIN(1)*SIN(1)</f>
         <v>-7.9968741155962253E-4</v>
       </c>
@@ -2103,7 +2196,7 @@
       <c r="B47" s="33">
         <v>1</v>
       </c>
-      <c r="C47" s="59"/>
+      <c r="C47" s="57"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
@@ -2112,7 +2205,7 @@
       <c r="B48" s="33">
         <v>5</v>
       </c>
-      <c r="C48" s="59"/>
+      <c r="C48" s="57"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
@@ -2121,7 +2214,7 @@
       <c r="B49" s="33">
         <v>2</v>
       </c>
-      <c r="C49" s="59">
+      <c r="C49" s="57">
         <f>SQRT(B51-20)/(B50*B50-13*B50+12)*SIN(5)*SIN(5)</f>
         <v>-1.0385097878310217E-3</v>
       </c>
@@ -2133,7 +2226,7 @@
       <c r="B50" s="13">
         <v>5</v>
       </c>
-      <c r="C50" s="59"/>
+      <c r="C50" s="57"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
@@ -2142,7 +2235,7 @@
       <c r="B51" s="14">
         <v>20.001000000000001</v>
       </c>
-      <c r="C51" s="60"/>
+      <c r="C51" s="61"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
@@ -2150,7 +2243,7 @@
         <v>9</v>
       </c>
       <c r="B52" s="12"/>
-      <c r="C52" s="58">
+      <c r="C52" s="56">
         <f>SQRT(B57-20)/(B56*B56-13*B56+12)*SIN(B53)*SIN(B54)</f>
         <v>-5.5555555555555552E-2</v>
       </c>
@@ -2163,7 +2256,7 @@
         <f>PI()/2</f>
         <v>1.5707963267948966</v>
       </c>
-      <c r="C53" s="59"/>
+      <c r="C53" s="57"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
@@ -2173,7 +2266,7 @@
         <f>PI()/2</f>
         <v>1.5707963267948966</v>
       </c>
-      <c r="C54" s="59"/>
+      <c r="C54" s="57"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="43" t="s">
@@ -2182,7 +2275,7 @@
       <c r="B55" s="33">
         <v>1</v>
       </c>
-      <c r="C55" s="59"/>
+      <c r="C55" s="57"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
@@ -2191,7 +2284,7 @@
       <c r="B56" s="13">
         <v>3</v>
       </c>
-      <c r="C56" s="59"/>
+      <c r="C56" s="57"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
@@ -2200,7 +2293,7 @@
       <c r="B57" s="13">
         <v>21</v>
       </c>
-      <c r="C57" s="60"/>
+      <c r="C57" s="61"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
@@ -2208,7 +2301,7 @@
         <v>10</v>
       </c>
       <c r="B58" s="12"/>
-      <c r="C58" s="58">
+      <c r="C58" s="56">
         <f>SQRT(B63-20)/(B62*B62-13*B62+12)*SIN(B59)*SIN(B60)</f>
         <v>-5.5555555555555552E-2</v>
       </c>
@@ -2221,7 +2314,7 @@
         <f>-PI()/2</f>
         <v>-1.5707963267948966</v>
       </c>
-      <c r="C59" s="59"/>
+      <c r="C59" s="57"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
@@ -2231,7 +2324,7 @@
         <f>-PI()/2</f>
         <v>-1.5707963267948966</v>
       </c>
-      <c r="C60" s="59"/>
+      <c r="C60" s="57"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
@@ -2240,7 +2333,7 @@
       <c r="B61" s="33">
         <v>1</v>
       </c>
-      <c r="C61" s="59"/>
+      <c r="C61" s="57"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
@@ -2249,7 +2342,7 @@
       <c r="B62" s="13">
         <v>3</v>
       </c>
-      <c r="C62" s="59"/>
+      <c r="C62" s="57"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
@@ -2258,7 +2351,7 @@
       <c r="B63" s="13">
         <v>21</v>
       </c>
-      <c r="C63" s="60"/>
+      <c r="C63" s="61"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
@@ -2538,7 +2631,7 @@
         <v>15</v>
       </c>
       <c r="B88" s="12"/>
-      <c r="C88" s="58">
+      <c r="C88" s="56">
         <f>SQRT(B93-20)/(B92*B92-13*B92+12)*SIN(B89)*SIN(B89)</f>
         <v>0</v>
       </c>
@@ -2551,7 +2644,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="C89" s="59"/>
+      <c r="C89" s="57"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
@@ -2560,7 +2653,7 @@
       <c r="B90" s="33">
         <v>0</v>
       </c>
-      <c r="C90" s="59"/>
+      <c r="C90" s="57"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
@@ -2569,7 +2662,7 @@
       <c r="B91" s="33">
         <v>1</v>
       </c>
-      <c r="C91" s="59"/>
+      <c r="C91" s="57"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
@@ -2578,7 +2671,7 @@
       <c r="B92" s="13">
         <v>3</v>
       </c>
-      <c r="C92" s="59"/>
+      <c r="C92" s="57"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
@@ -2587,10 +2680,15 @@
       <c r="B93" s="32">
         <v>21</v>
       </c>
-      <c r="C93" s="60"/>
+      <c r="C93" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="C15:C20"/>
     <mergeCell ref="C21:C26"/>
     <mergeCell ref="C27:C32"/>
     <mergeCell ref="C88:C93"/>
@@ -2601,11 +2699,6 @@
     <mergeCell ref="C46:C48"/>
     <mergeCell ref="C49:C51"/>
     <mergeCell ref="C33:C38"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="C15:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2615,1054 +2708,564 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="30.5703125" customWidth="1"/>
-    <col min="4" max="5" width="4" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="49" customWidth="1"/>
+    <col min="8" max="8" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="F2" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>46</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="66" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="35"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>46</v>
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="66" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="33">
-        <v>1</v>
-      </c>
-      <c r="C4" s="36">
-        <f>SQRT($B$8-20)/($B$7*$B$7-13*$B$7+12)*SIN(1)*SIN(1)</f>
-        <v>-2.5288336366913255E-2</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>14</v>
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="66" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="33">
-        <v>5</v>
-      </c>
-      <c r="C5" s="36">
-        <f>SQRT($B$8-20)/($B$7*$B$7-13*$B$7+12)*SIN(2)*SIN(2)</f>
-        <v>-2.9529350372564496E-2</v>
-      </c>
-      <c r="F5" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>47</v>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="66" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="33">
-        <v>5</v>
-      </c>
-      <c r="C6" s="36">
-        <f>SQRT($B$8-20)/($B$7*$B$7-13*$B$7+12)*SIN(3)*SIN(3)</f>
-        <v>-7.1124488124346382E-4</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="18">
-        <v>8</v>
-      </c>
-      <c r="C7" s="37">
-        <f>SQRT($B$8-20)/($B$7*$B$7-13*$B$7+12)*SIN(4)*SIN(4)</f>
-        <v>-2.045535774658238E-2</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="11">
-        <v>21</v>
-      </c>
-      <c r="C8" s="38">
-        <f>SQRT($B$8-20)/($B$7*$B$7-13*$B$7+12)*SIN(5)*SIN(5)</f>
-        <v>-3.2840563019222363E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
-        <f>A3+1</f>
-        <v>2</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="58" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="33">
-        <v>1</v>
-      </c>
-      <c r="C10" s="59"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="33">
-        <v>5</v>
-      </c>
-      <c r="C11" s="59"/>
+      <c r="A11" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="66"/>
+      <c r="C11" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="33">
-        <v>5</v>
-      </c>
-      <c r="C12" s="59"/>
+      <c r="A12" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="59"/>
+      <c r="A13" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="61"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="14">
-        <v>21</v>
-      </c>
-      <c r="C14" s="60"/>
+      <c r="A14" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
-        <f>A9+1</f>
-        <v>3</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="61" t="s">
-        <v>18</v>
-      </c>
+      <c r="A15" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="33">
-        <v>1</v>
-      </c>
-      <c r="C16" s="62"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="33">
-        <v>5</v>
-      </c>
-      <c r="C17" s="62"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="33">
-        <v>5</v>
-      </c>
-      <c r="C18" s="62"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="13">
-        <v>12</v>
-      </c>
-      <c r="C19" s="62"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="14">
-        <v>21</v>
-      </c>
-      <c r="C20" s="63"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
-        <f>A15+1</f>
-        <v>4</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="58" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="33">
-        <v>1</v>
-      </c>
-      <c r="C22" s="59"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="33">
-        <v>5</v>
-      </c>
-      <c r="C23" s="59"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="33">
-        <v>5</v>
-      </c>
-      <c r="C24" s="59"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="31">
-        <v>5</v>
-      </c>
-      <c r="C25" s="59"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="32">
-        <v>19</v>
-      </c>
-      <c r="C26" s="59"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
-        <f>A21+1</f>
-        <v>5</v>
-      </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="41">
-        <v>3</v>
-      </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="33">
-        <v>1</v>
-      </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="33">
-        <v>3</v>
-      </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="33">
-        <v>8</v>
-      </c>
-      <c r="C31" s="65"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="42">
-        <v>21</v>
-      </c>
+      <c r="A16" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="61"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="61"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="75" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="61"/>
+      <c r="D22" s="75"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="75"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="75"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="61"/>
+      <c r="D25" s="75"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="75"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="75"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="61"/>
+      <c r="D28" s="75"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="75"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="75"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="61"/>
+      <c r="D31" s="75"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="66"/>
       <c r="C32" s="66"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16">
-        <f>A27+1</f>
-        <v>6</v>
-      </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="41">
-        <v>1</v>
-      </c>
-      <c r="C34" s="65"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="33">
-        <v>5</v>
-      </c>
-      <c r="C35" s="65"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="33">
-        <v>0</v>
-      </c>
-      <c r="C36" s="65"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="33">
-        <v>8</v>
-      </c>
-      <c r="C37" s="65"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="42">
-        <v>21</v>
-      </c>
+      <c r="D32" s="75"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="75"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="61"/>
+      <c r="D34" s="75"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="75"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="75"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="61"/>
+      <c r="D37" s="75"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="66"/>
       <c r="C38" s="66"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="16">
-        <f>A33+1</f>
-        <v>7</v>
-      </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="33">
-        <v>1</v>
-      </c>
-      <c r="C41" s="59"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="33">
-        <v>5</v>
-      </c>
-      <c r="C42" s="59"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="33">
-        <v>5</v>
-      </c>
-      <c r="C43" s="59"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" s="13">
-        <v>5</v>
-      </c>
-      <c r="C44" s="59"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" s="14">
-        <v>19.998999999999999</v>
-      </c>
-      <c r="C45" s="60"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="16">
-        <f>A40+1</f>
-        <v>8</v>
-      </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="58">
-        <f>SQRT(B51-20)/(B50*B50-13*B50+12)*SIN(1)*SIN(1)</f>
-        <v>-7.9968741155962253E-4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" s="33">
-        <v>1</v>
-      </c>
-      <c r="C47" s="59"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" s="33">
-        <v>5</v>
-      </c>
-      <c r="C48" s="59"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="33">
-        <v>2</v>
-      </c>
-      <c r="C49" s="59">
-        <f>SQRT(B51-20)/(B50*B50-13*B50+12)*SIN(5)*SIN(5)</f>
-        <v>-1.0385097878310217E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" s="13">
-        <v>5</v>
-      </c>
-      <c r="C50" s="59"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51" s="14">
-        <v>20.001000000000001</v>
-      </c>
-      <c r="C51" s="60"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="16">
-        <f>A46+1</f>
-        <v>9</v>
-      </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="58">
-        <f>SQRT(B57-20)/(B56*B56-13*B56+12)*SIN(B53)*SIN(B54)</f>
-        <v>-5.5555555555555552E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="34">
-        <f>PI()/2</f>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="C53" s="59"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="34">
-        <f>PI()/2</f>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="C54" s="59"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="33">
-        <v>1</v>
-      </c>
-      <c r="C55" s="59"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" s="13">
-        <v>3</v>
-      </c>
-      <c r="C56" s="59"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B57" s="13">
-        <v>21</v>
-      </c>
-      <c r="C57" s="60"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="16">
-        <f>A52+1</f>
-        <v>10</v>
-      </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="58">
-        <f>SQRT(B63-20)/(B62*B62-13*B62+12)*SIN(B59)*SIN(B60)</f>
-        <v>-5.5555555555555552E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="33">
-        <f>-PI()/2</f>
-        <v>-1.5707963267948966</v>
-      </c>
-      <c r="C59" s="59"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B60" s="33">
-        <f>-PI()/2</f>
-        <v>-1.5707963267948966</v>
-      </c>
-      <c r="C60" s="59"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B61" s="33">
-        <v>1</v>
-      </c>
-      <c r="C61" s="59"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B62" s="13">
-        <v>3</v>
-      </c>
-      <c r="C62" s="59"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B63" s="13">
-        <v>21</v>
-      </c>
-      <c r="C63" s="60"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="16">
-        <f>A58+1</f>
-        <v>11</v>
-      </c>
-      <c r="B64" s="12"/>
-      <c r="C64" s="46"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B65" s="33">
-        <v>1</v>
-      </c>
-      <c r="C65" s="45">
-        <f>SQRT($B$69-20)/($B$68*$B$68-13*$B$68+12)*SIN(1)*SIN(1)</f>
-        <v>-64.376163130619759</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B66" s="33">
-        <v>5</v>
-      </c>
-      <c r="C66" s="45">
-        <f>SQRT($B$69-20)/($B$68*$B$68-13*$B$68+12)*SIN(2)*SIN(2)</f>
-        <v>-75.172452989539138</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B67" s="33">
-        <v>5</v>
-      </c>
-      <c r="C67" s="45">
-        <f>SQRT($B$69-20)/($B$68*$B$68-13*$B$68+12)*SIN(3)*SIN(3)</f>
-        <v>-1.8106061164487897</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B68" s="13">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="C68" s="45">
-        <f>SQRT($B$69-20)/($B$68*$B$68-13*$B$68+12)*SIN(4)*SIN(4)</f>
-        <v>-52.072917256514238</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B69" s="14">
-        <v>21</v>
-      </c>
-      <c r="C69" s="45">
-        <f>SQRT($B$69-20)/($B$68*$B$68-13*$B$68+12)*SIN(5)*SIN(5)</f>
-        <v>-83.601760572631719</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="16">
-        <f>A64+1</f>
-        <v>12</v>
-      </c>
-      <c r="B70" s="12"/>
-      <c r="C70" s="44"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B71" s="33">
-        <v>1</v>
-      </c>
-      <c r="C71" s="45">
-        <f>SQRT($B$75-20)/($B$74*$B$74-13*$B$74+12)*SIN(1)*SIN(1)</f>
-        <v>64.364459437646985</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B72" s="33">
-        <v>5</v>
-      </c>
-      <c r="C72" s="45">
-        <f>SQRT($B$75-20)/($B$74*$B$74-13*$B$74+12)*SIN(2)*SIN(2)</f>
-        <v>75.15878651320665</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B73" s="33">
-        <v>5</v>
-      </c>
-      <c r="C73" s="45">
-        <f>SQRT($B$75-20)/($B$74*$B$74-13*$B$74+12)*SIN(3)*SIN(3)</f>
-        <v>1.8102769452610232</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B74" s="13">
-        <v>0.999</v>
-      </c>
-      <c r="C74" s="45">
-        <f>SQRT($B$75-20)/($B$74*$B$74-13*$B$74+12)*SIN(4)*SIN(4)</f>
-        <v>52.063450313998104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B75" s="14">
-        <v>21</v>
-      </c>
-      <c r="C75" s="45">
-        <f>SQRT($B$75-20)/($B$74*$B$74-13*$B$74+12)*SIN(5)*SIN(5)</f>
-        <v>83.586561634233661</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="16">
-        <f>A70+1</f>
-        <v>13</v>
-      </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="44"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B77" s="33">
-        <v>1</v>
-      </c>
-      <c r="C77" s="45">
-        <f>SQRT($B$81-20)/($B$80*$B$80-13*$B$80+12)*SIN(1)*SIN(1)</f>
-        <v>-64.376163130786111</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B78" s="33">
-        <v>5</v>
-      </c>
-      <c r="C78" s="45">
-        <f>SQRT($B$81-20)/($B$80*$B$80-13*$B$80+12)*SIN(2)*SIN(2)</f>
-        <v>-75.172452989733387</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B79" s="33">
-        <v>5</v>
-      </c>
-      <c r="C79" s="45">
-        <f>SQRT($B$81-20)/($B$80*$B$80-13*$B$80+12)*SIN(3)*SIN(3)</f>
-        <v>-1.8106061164534684</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B80" s="13">
-        <v>11.999000000000001</v>
-      </c>
-      <c r="C80" s="45">
-        <f>SQRT($B$81-20)/($B$80*$B$80-13*$B$80+12)*SIN(4)*SIN(4)</f>
-        <v>-52.072917256648807</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B81" s="14">
-        <v>21</v>
-      </c>
-      <c r="C81" s="45">
-        <f>SQRT($B$81-20)/($B$80*$B$80-13*$B$80+12)*SIN(5)*SIN(5)</f>
-        <v>-83.601760572847752</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="16">
-        <f>A76+1</f>
-        <v>14</v>
-      </c>
-      <c r="B82" s="12"/>
-      <c r="C82" s="44"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B83" s="33">
-        <v>1</v>
-      </c>
-      <c r="C83" s="45">
-        <f>SQRT($B$87-20)/($B$86*$B$86-13*$B$86+12)*SIN(1)*SIN(1)</f>
-        <v>64.364459437688552</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B84" s="33">
-        <v>5</v>
-      </c>
-      <c r="C84" s="45">
-        <f>SQRT($B$87-20)/($B$86*$B$86-13*$B$86+12)*SIN(2)*SIN(2)</f>
-        <v>75.158786513255194</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B85" s="33">
-        <v>5</v>
-      </c>
-      <c r="C85" s="45">
-        <f>SQRT($B$87-20)/($B$86*$B$86-13*$B$86+12)*SIN(3)*SIN(3)</f>
-        <v>1.8102769452621923</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B86" s="13">
-        <v>12.000999999999999</v>
-      </c>
-      <c r="C86" s="45">
-        <f>SQRT($B$87-20)/($B$86*$B$86-13*$B$86+12)*SIN(4)*SIN(4)</f>
-        <v>52.063450314031726</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B87" s="14">
-        <v>21</v>
-      </c>
-      <c r="C87" s="45">
-        <f>SQRT($B$87-20)/($B$86*$B$86-13*$B$86+12)*SIN(5)*SIN(5)</f>
-        <v>83.586561634287634</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="16">
-        <f>A82+1</f>
-        <v>15</v>
-      </c>
-      <c r="B88" s="12"/>
-      <c r="C88" s="58">
-        <f>SQRT(B93-20)/(B92*B92-13*B92+12)*SIN(B89)*SIN(B89)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B89" s="33">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="C89" s="59"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B90" s="33">
-        <v>0</v>
-      </c>
-      <c r="C90" s="59"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B91" s="33">
-        <v>1</v>
-      </c>
-      <c r="C91" s="59"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B92" s="13">
-        <v>3</v>
-      </c>
-      <c r="C92" s="59"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B93" s="32">
-        <v>21</v>
-      </c>
-      <c r="C93" s="60"/>
+      <c r="D38" s="75"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="75"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="61"/>
+      <c r="D40" s="75"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="61"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="61"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
+    </row>
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="61"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="66"/>
+      <c r="C50" s="66"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="61"/>
+      <c r="D52" s="74"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="C88:C93"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="C21:C26"/>
+  <mergeCells count="17">
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D21:D40"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C24:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Кейсы.xlsx
+++ b/Кейсы.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7692" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GetF" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="98">
   <si>
     <t>Правильные</t>
   </si>
@@ -296,9 +296,6 @@
   </si>
   <si>
     <t>Метка тома не существует</t>
-  </si>
-  <si>
-    <t>№14</t>
   </si>
   <si>
     <t>C:\a\b\c\d\aw.txt</t>
@@ -651,63 +648,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
@@ -717,6 +657,63 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1107,18 +1104,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1127,7 +1124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1138,7 +1135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>15</v>
@@ -1147,7 +1144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>16</v>
@@ -1156,7 +1153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1167,7 +1164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>13</v>
@@ -1176,38 +1173,38 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="47" t="s">
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="48" t="s">
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+    </row>
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
@@ -1219,7 +1216,7 @@
         <v>-1.0569963181903713E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
@@ -1228,161 +1225,161 @@
       </c>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="12"/>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="55" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="13">
         <v>1</v>
       </c>
-      <c r="C16" s="51"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="56"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="14">
         <v>21</v>
       </c>
-      <c r="C17" s="52"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="57"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="12"/>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="61" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="13">
         <v>12</v>
       </c>
-      <c r="C19" s="54"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="62"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="14">
         <v>21</v>
       </c>
-      <c r="C20" s="55"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="63"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="12"/>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="55" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="13">
         <v>5</v>
       </c>
-      <c r="C22" s="51"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="56"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="14">
         <v>19</v>
       </c>
-      <c r="C23" s="52"/>
-    </row>
-    <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
+      <c r="C23" s="57"/>
+    </row>
+    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A24" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="12"/>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="55" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="13">
         <v>5</v>
       </c>
-      <c r="C26" s="51"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="56"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="14">
         <v>19.998999999999999</v>
       </c>
-      <c r="C27" s="52"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="57"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="12"/>
-      <c r="C28" s="50">
+      <c r="C28" s="55">
         <f>SQRT(B30-20)/(B29*B29-13*B29+12)*SIN(10)*SIN(10)</f>
         <v>-3.3425158438956819E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B29" s="13">
         <v>5</v>
       </c>
-      <c r="C29" s="51"/>
+      <c r="C29" s="56"/>
       <c r="E29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B30" s="14">
         <v>20.001000000000001</v>
       </c>
-      <c r="C30" s="52"/>
+      <c r="C30" s="57"/>
       <c r="E30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="12"/>
-      <c r="C31" s="50">
+      <c r="C31" s="55">
         <f>SQRT(B33-20)/(B32*B32-13*B32+12)*SIN(B34)*SIN(B34)</f>
         <v>-5.5555555555555552E-2</v>
       </c>
@@ -1390,31 +1387,31 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B32" s="13">
         <v>3</v>
       </c>
-      <c r="C32" s="51"/>
+      <c r="C32" s="56"/>
       <c r="E32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="13">
         <v>21</v>
       </c>
-      <c r="C33" s="51"/>
+      <c r="C33" s="56"/>
       <c r="E33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
@@ -1422,46 +1419,46 @@
         <f>PI()/2</f>
         <v>1.5707963267948966</v>
       </c>
-      <c r="C34" s="52"/>
+      <c r="C34" s="57"/>
       <c r="E34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B35" s="12"/>
-      <c r="C35" s="50">
+      <c r="C35" s="55">
         <f>SQRT(B37-20)/(B36*B36-13*B36+12)*SIN(B38)*SIN(B38)</f>
         <v>-5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="13">
         <v>3</v>
       </c>
-      <c r="C36" s="51"/>
+      <c r="C36" s="56"/>
       <c r="E36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B37" s="13">
         <v>21</v>
       </c>
-      <c r="C37" s="51"/>
+      <c r="C37" s="56"/>
       <c r="E37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>22</v>
       </c>
@@ -1469,17 +1466,17 @@
         <f>-PI()/2</f>
         <v>-1.5707963267948966</v>
       </c>
-      <c r="C38" s="52"/>
+      <c r="C38" s="57"/>
       <c r="E38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B39" s="12"/>
-      <c r="C39" s="50">
+      <c r="C39" s="55">
         <f>SQRT(B41-20)/(B40*B40-13*B40+12)*SIN(10)*SIN(10)</f>
         <v>-26.907806990940291</v>
       </c>
@@ -1487,137 +1484,137 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B40" s="13">
         <v>1.0009999999999999</v>
       </c>
-      <c r="C40" s="51"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="56"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B41" s="14">
         <v>21</v>
       </c>
-      <c r="C41" s="52"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C41" s="57"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B42" s="12"/>
-      <c r="C42" s="50">
+      <c r="C42" s="55">
         <f>SQRT(B44-20)/(B43*B43-13*B43+12)*SIN(10)*SIN(10)</f>
         <v>26.902915107108168</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B43" s="13">
         <v>0.999</v>
       </c>
-      <c r="C43" s="51"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="56"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B44" s="14">
         <v>21</v>
       </c>
-      <c r="C44" s="52"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="57"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B45" s="12"/>
-      <c r="C45" s="50">
+      <c r="C45" s="55">
         <f>SQRT(B47-20)/(B46*B46-13*B46+12)*SIN(10)*SIN(10)</f>
         <v>-26.907806991009824</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B46" s="13">
         <v>11.999000000000001</v>
       </c>
-      <c r="C46" s="51"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C46" s="56"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="14">
         <v>21</v>
       </c>
-      <c r="C47" s="52"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C47" s="57"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B48" s="12"/>
-      <c r="C48" s="50">
+      <c r="C48" s="55">
         <f>SQRT(B50-20)/(B49*B49-13*B49+12)*SIN(10)*SIN(10)</f>
         <v>26.902915107125541</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B49" s="13">
         <v>12.000999999999999</v>
       </c>
-      <c r="C49" s="51"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="56"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B50" s="14">
         <v>21</v>
       </c>
-      <c r="C50" s="52"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="57"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B51" s="12"/>
-      <c r="C51" s="50">
+      <c r="C51" s="55">
         <f>SQRT(B53-20)/(B52*B52-13*B52+12)*SIN(B54)*SIN(B54)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B52" s="13">
         <v>3</v>
       </c>
-      <c r="C52" s="51"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="56"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B53" s="13">
         <v>21</v>
       </c>
-      <c r="C53" s="51"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="56"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>22</v>
       </c>
@@ -1625,10 +1622,17 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="C54" s="52"/>
+      <c r="C54" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C21:C23"/>
     <mergeCell ref="C42:C44"/>
     <mergeCell ref="C45:C47"/>
     <mergeCell ref="C51:C54"/>
@@ -1637,13 +1641,6 @@
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="C48:C50"/>
     <mergeCell ref="C35:C38"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C21:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1659,20 +1656,20 @@
       <selection activeCell="G12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" customWidth="1"/>
     <col min="4" max="5" width="4" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -1681,13 +1678,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="F2" s="62" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="F2" s="64" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="21" t="s">
@@ -1697,13 +1694,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="35"/>
-      <c r="F3" s="62"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="21" t="s">
         <v>16</v>
       </c>
@@ -1711,7 +1708,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>56</v>
       </c>
@@ -1732,7 +1729,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>55</v>
       </c>
@@ -1753,7 +1750,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>52</v>
       </c>
@@ -1774,7 +1771,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>20</v>
       </c>
@@ -1787,7 +1784,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
@@ -1799,456 +1796,456 @@
         <v>-3.2840563019222363E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="65" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>56</v>
       </c>
       <c r="B10" s="33">
         <v>1</v>
       </c>
-      <c r="C10" s="57"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="66"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="33">
         <v>5</v>
       </c>
-      <c r="C11" s="57"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="66"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="33">
         <v>5</v>
       </c>
-      <c r="C12" s="57"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="66"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="13">
         <v>1</v>
       </c>
-      <c r="C13" s="57"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="66"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="14">
         <v>21</v>
       </c>
-      <c r="C14" s="61"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="67"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <f>A9+1</f>
         <v>3</v>
       </c>
       <c r="B15" s="12"/>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="68" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="33">
         <v>1</v>
       </c>
-      <c r="C16" s="64"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="69"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>55</v>
       </c>
       <c r="B17" s="33">
         <v>5</v>
       </c>
-      <c r="C17" s="64"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="69"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>52</v>
       </c>
       <c r="B18" s="33">
         <v>5</v>
       </c>
-      <c r="C18" s="64"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="69"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="13">
         <v>12</v>
       </c>
-      <c r="C19" s="64"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="69"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="14">
         <v>21</v>
       </c>
-      <c r="C20" s="65"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="70"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <f>A15+1</f>
         <v>4</v>
       </c>
       <c r="B21" s="30"/>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="65" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>56</v>
       </c>
       <c r="B22" s="33">
         <v>1</v>
       </c>
-      <c r="C22" s="57"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="66"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>55</v>
       </c>
       <c r="B23" s="33">
         <v>5</v>
       </c>
-      <c r="C23" s="57"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="66"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="33">
         <v>5</v>
       </c>
-      <c r="C24" s="57"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="66"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="31">
         <v>5</v>
       </c>
-      <c r="C25" s="57"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="66"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="32">
         <v>19</v>
       </c>
-      <c r="C26" s="57"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="66"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <f>A21+1</f>
         <v>5</v>
       </c>
       <c r="B27" s="29"/>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="71" t="s">
         <v>50</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="27" t="s">
         <v>49</v>
       </c>
       <c r="B28" s="41">
         <v>3</v>
       </c>
-      <c r="C28" s="59"/>
+      <c r="C28" s="72"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
         <v>51</v>
       </c>
       <c r="B29" s="33">
         <v>1</v>
       </c>
-      <c r="C29" s="59"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="27" t="s">
         <v>52</v>
       </c>
       <c r="B30" s="33">
         <v>3</v>
       </c>
-      <c r="C30" s="59"/>
+      <c r="C30" s="72"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="27" t="s">
         <v>53</v>
       </c>
       <c r="B31" s="33">
         <v>8</v>
       </c>
-      <c r="C31" s="59"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="28" t="s">
         <v>54</v>
       </c>
       <c r="B32" s="42">
         <v>21</v>
       </c>
-      <c r="C32" s="60"/>
+      <c r="C32" s="73"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <f>A27+1</f>
         <v>6</v>
       </c>
       <c r="B33" s="29"/>
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="71" t="s">
         <v>58</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="27" t="s">
         <v>49</v>
       </c>
       <c r="B34" s="41">
         <v>1</v>
       </c>
-      <c r="C34" s="59"/>
+      <c r="C34" s="72"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
         <v>51</v>
       </c>
       <c r="B35" s="33">
         <v>5</v>
       </c>
-      <c r="C35" s="59"/>
+      <c r="C35" s="72"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="27" t="s">
         <v>52</v>
       </c>
       <c r="B36" s="33">
         <v>0</v>
       </c>
-      <c r="C36" s="59"/>
+      <c r="C36" s="72"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="27" t="s">
         <v>53</v>
       </c>
       <c r="B37" s="33">
         <v>8</v>
       </c>
-      <c r="C37" s="59"/>
+      <c r="C37" s="72"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
         <v>54</v>
       </c>
       <c r="B38" s="42">
         <v>21</v>
       </c>
-      <c r="C38" s="60"/>
+      <c r="C38" s="73"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="49" t="s">
+    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A39" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="16">
         <f>A33+1</f>
         <v>7</v>
       </c>
       <c r="B40" s="12"/>
-      <c r="C40" s="56" t="s">
+      <c r="C40" s="65" t="s">
         <v>19</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
         <v>56</v>
       </c>
       <c r="B41" s="33">
         <v>1</v>
       </c>
-      <c r="C41" s="57"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="66"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="s">
         <v>55</v>
       </c>
       <c r="B42" s="33">
         <v>5</v>
       </c>
-      <c r="C42" s="57"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="66"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
         <v>52</v>
       </c>
       <c r="B43" s="33">
         <v>5</v>
       </c>
-      <c r="C43" s="57"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="66"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B44" s="13">
         <v>5</v>
       </c>
-      <c r="C44" s="57"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="66"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B45" s="14">
         <v>19.998999999999999</v>
       </c>
-      <c r="C45" s="61"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="67"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
         <f>A40+1</f>
         <v>8</v>
       </c>
       <c r="B46" s="12"/>
-      <c r="C46" s="56">
+      <c r="C46" s="65">
         <f>SQRT(B51-20)/(B50*B50-13*B50+12)*SIN(1)*SIN(1)</f>
         <v>-7.9968741155962253E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
         <v>56</v>
       </c>
       <c r="B47" s="33">
         <v>1</v>
       </c>
-      <c r="C47" s="57"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="66"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="26" t="s">
         <v>55</v>
       </c>
       <c r="B48" s="33">
         <v>5</v>
       </c>
-      <c r="C48" s="57"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="66"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="26" t="s">
         <v>52</v>
       </c>
       <c r="B49" s="33">
         <v>2</v>
       </c>
-      <c r="C49" s="57">
+      <c r="C49" s="66">
         <f>SQRT(B51-20)/(B50*B50-13*B50+12)*SIN(5)*SIN(5)</f>
         <v>-1.0385097878310217E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B50" s="13">
         <v>5</v>
       </c>
-      <c r="C50" s="57"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="66"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B51" s="14">
         <v>20.001000000000001</v>
       </c>
-      <c r="C51" s="61"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="67"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="16">
         <f>A46+1</f>
         <v>9</v>
       </c>
       <c r="B52" s="12"/>
-      <c r="C52" s="56">
+      <c r="C52" s="65">
         <f>SQRT(B57-20)/(B56*B56-13*B56+12)*SIN(B53)*SIN(B54)</f>
         <v>-5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>56</v>
       </c>
@@ -2256,9 +2253,9 @@
         <f>PI()/2</f>
         <v>1.5707963267948966</v>
       </c>
-      <c r="C53" s="57"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="66"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
         <v>55</v>
       </c>
@@ -2266,47 +2263,47 @@
         <f>PI()/2</f>
         <v>1.5707963267948966</v>
       </c>
-      <c r="C54" s="57"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="66"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="43" t="s">
         <v>57</v>
       </c>
       <c r="B55" s="33">
         <v>1</v>
       </c>
-      <c r="C55" s="57"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="66"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B56" s="13">
         <v>3</v>
       </c>
-      <c r="C56" s="57"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="66"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B57" s="13">
         <v>21</v>
       </c>
-      <c r="C57" s="61"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="67"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="16">
         <f>A52+1</f>
         <v>10</v>
       </c>
       <c r="B58" s="12"/>
-      <c r="C58" s="56">
+      <c r="C58" s="65">
         <f>SQRT(B63-20)/(B62*B62-13*B62+12)*SIN(B59)*SIN(B60)</f>
         <v>-5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="26" t="s">
         <v>56</v>
       </c>
@@ -2314,9 +2311,9 @@
         <f>-PI()/2</f>
         <v>-1.5707963267948966</v>
       </c>
-      <c r="C59" s="57"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="66"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="s">
         <v>55</v>
       </c>
@@ -2324,36 +2321,36 @@
         <f>-PI()/2</f>
         <v>-1.5707963267948966</v>
       </c>
-      <c r="C60" s="57"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="66"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="26" t="s">
         <v>57</v>
       </c>
       <c r="B61" s="33">
         <v>1</v>
       </c>
-      <c r="C61" s="57"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="66"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B62" s="13">
         <v>3</v>
       </c>
-      <c r="C62" s="57"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="66"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B63" s="13">
         <v>21</v>
       </c>
-      <c r="C63" s="61"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="67"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="16">
         <f>A58+1</f>
         <v>11</v>
@@ -2361,7 +2358,7 @@
       <c r="B64" s="12"/>
       <c r="C64" s="46"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="26" t="s">
         <v>56</v>
       </c>
@@ -2373,7 +2370,7 @@
         <v>-64.376163130619759</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="26" t="s">
         <v>55</v>
       </c>
@@ -2385,7 +2382,7 @@
         <v>-75.172452989539138</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="26" t="s">
         <v>57</v>
       </c>
@@ -2397,7 +2394,7 @@
         <v>-1.8106061164487897</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>20</v>
       </c>
@@ -2409,7 +2406,7 @@
         <v>-52.072917256514238</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>21</v>
       </c>
@@ -2421,7 +2418,7 @@
         <v>-83.601760572631719</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="16">
         <f>A64+1</f>
         <v>12</v>
@@ -2429,7 +2426,7 @@
       <c r="B70" s="12"/>
       <c r="C70" s="44"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="26" t="s">
         <v>56</v>
       </c>
@@ -2441,7 +2438,7 @@
         <v>64.364459437646985</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="26" t="s">
         <v>55</v>
       </c>
@@ -2453,7 +2450,7 @@
         <v>75.15878651320665</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="26" t="s">
         <v>57</v>
       </c>
@@ -2465,7 +2462,7 @@
         <v>1.8102769452610232</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>20</v>
       </c>
@@ -2477,7 +2474,7 @@
         <v>52.063450313998104</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>21</v>
       </c>
@@ -2489,7 +2486,7 @@
         <v>83.586561634233661</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="16">
         <f>A70+1</f>
         <v>13</v>
@@ -2497,7 +2494,7 @@
       <c r="B76" s="12"/>
       <c r="C76" s="44"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="26" t="s">
         <v>56</v>
       </c>
@@ -2509,7 +2506,7 @@
         <v>-64.376163130786111</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="26" t="s">
         <v>55</v>
       </c>
@@ -2521,7 +2518,7 @@
         <v>-75.172452989733387</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="26" t="s">
         <v>57</v>
       </c>
@@ -2533,7 +2530,7 @@
         <v>-1.8106061164534684</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>20</v>
       </c>
@@ -2545,7 +2542,7 @@
         <v>-52.072917256648807</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>21</v>
       </c>
@@ -2557,7 +2554,7 @@
         <v>-83.601760572847752</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="16">
         <f>A76+1</f>
         <v>14</v>
@@ -2565,7 +2562,7 @@
       <c r="B82" s="12"/>
       <c r="C82" s="44"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="26" t="s">
         <v>56</v>
       </c>
@@ -2577,7 +2574,7 @@
         <v>64.364459437688552</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="26" t="s">
         <v>55</v>
       </c>
@@ -2589,7 +2586,7 @@
         <v>75.158786513255194</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="26" t="s">
         <v>57</v>
       </c>
@@ -2601,7 +2598,7 @@
         <v>1.8102769452621923</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>20</v>
       </c>
@@ -2613,7 +2610,7 @@
         <v>52.063450314031726</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
         <v>21</v>
       </c>
@@ -2625,18 +2622,18 @@
         <v>83.586561634287634</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="16">
         <f>A82+1</f>
         <v>15</v>
       </c>
       <c r="B88" s="12"/>
-      <c r="C88" s="56">
+      <c r="C88" s="65">
         <f>SQRT(B93-20)/(B92*B92-13*B92+12)*SIN(B89)*SIN(B89)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="26" t="s">
         <v>56</v>
       </c>
@@ -2644,51 +2641,46 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="C89" s="57"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="66"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="26" t="s">
         <v>55</v>
       </c>
       <c r="B90" s="33">
         <v>0</v>
       </c>
-      <c r="C90" s="57"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="66"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="26" t="s">
         <v>57</v>
       </c>
       <c r="B91" s="33">
         <v>1</v>
       </c>
-      <c r="C91" s="57"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="66"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B92" s="13">
         <v>3</v>
       </c>
-      <c r="C92" s="57"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="66"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B93" s="32">
         <v>21</v>
       </c>
-      <c r="C93" s="61"/>
+      <c r="C93" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="C15:C20"/>
     <mergeCell ref="C21:C26"/>
     <mergeCell ref="C27:C32"/>
     <mergeCell ref="C88:C93"/>
@@ -2699,6 +2691,11 @@
     <mergeCell ref="C46:C48"/>
     <mergeCell ref="C49:C51"/>
     <mergeCell ref="C33:C38"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="C15:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2708,551 +2705,527 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" customWidth="1"/>
     <col min="7" max="7" width="49" customWidth="1"/>
-    <col min="8" max="8" width="45.85546875" customWidth="1"/>
+    <col min="8" max="8" width="45.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="47" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="H2" s="47" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="66" t="s">
+      <c r="H3" s="47" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="66" t="s">
+      <c r="H4" s="47" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="47" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="66"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="71" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="73" t="s">
+      <c r="B11" s="47"/>
+      <c r="C11" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="67"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D15" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="67"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="56" t="s">
+      <c r="B18" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B19" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="67"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="75" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="67" t="s">
+      <c r="C22" s="67"/>
+      <c r="D22" s="75"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="75"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="74" t="s">
+      <c r="B24" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="75"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="67"/>
+      <c r="D25" s="75"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="75"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="75"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="67"/>
+      <c r="D28" s="75"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="75"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="75"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="67"/>
+      <c r="D31" s="75"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="75"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="75"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="67"/>
+      <c r="D34" s="75"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="75"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="75"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="67"/>
+      <c r="D37" s="75"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="75"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="75"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="67"/>
+      <c r="D40" s="75"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="67"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+    </row>
+    <row r="45" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="67"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+    </row>
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="70" t="s">
+      <c r="B49" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="72" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="61"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="75" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="75"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="75"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="68" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="75"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="75"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="72" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="75"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="75"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="75"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="75"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="68" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="75"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="75"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="75"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="75"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="75"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="75"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="75"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="75"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="75"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" s="68" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="75"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="61"/>
-      <c r="D40" s="75"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="66"/>
-      <c r="C41" s="66"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="61"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" s="66"/>
-      <c r="C44" s="66"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" s="56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="61"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" s="66"/>
-      <c r="C47" s="66"/>
-    </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="B48" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="C48" s="56" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" s="61"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="72" t="s">
-        <v>90</v>
-      </c>
-      <c r="B50" s="66"/>
-      <c r="C50" s="66"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="B51" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="C51" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="D51" s="74" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" s="61"/>
-      <c r="D52" s="74"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="74"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="C51:C52"/>
+  <mergeCells count="16">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C48:C49"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D48:D49"/>
     <mergeCell ref="D21:D40"/>
-    <mergeCell ref="C48:C49"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C36:C37"/>
@@ -3260,10 +3233,6 @@
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C24:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Кейсы.xlsx
+++ b/Кейсы.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7692" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GetF" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="99">
   <si>
     <t>Правильные</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>Метка тома не существует</t>
+  </si>
+  <si>
+    <t>№14</t>
   </si>
   <si>
     <t>C:\a\b\c\d\aw.txt</t>
@@ -648,6 +651,63 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
@@ -657,63 +717,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1104,18 +1107,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C31" sqref="C31:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1124,7 +1127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1135,7 +1138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>15</v>
@@ -1144,7 +1147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>16</v>
@@ -1153,7 +1156,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1164,7 +1167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>13</v>
@@ -1173,38 +1176,38 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="58" t="s">
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-    </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="59" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
@@ -1216,7 +1219,7 @@
         <v>-1.0569963181903713E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
@@ -1225,161 +1228,161 @@
       </c>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="12"/>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="50" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="13">
         <v>1</v>
       </c>
-      <c r="C16" s="56"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C16" s="51"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="14">
         <v>21</v>
       </c>
-      <c r="C17" s="57"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="52"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="12"/>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="53" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="13">
         <v>12</v>
       </c>
-      <c r="C19" s="62"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="54"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="14">
         <v>21</v>
       </c>
-      <c r="C20" s="63"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="55"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="12"/>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="50" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="13">
         <v>5</v>
       </c>
-      <c r="C22" s="56"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="51"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="14">
         <v>19</v>
       </c>
-      <c r="C23" s="57"/>
-    </row>
-    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A24" s="60" t="s">
+      <c r="C23" s="52"/>
+    </row>
+    <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="12"/>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="50" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="13">
         <v>5</v>
       </c>
-      <c r="C26" s="56"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="51"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="14">
         <v>19.998999999999999</v>
       </c>
-      <c r="C27" s="57"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C27" s="52"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="12"/>
-      <c r="C28" s="55">
+      <c r="C28" s="50">
         <f>SQRT(B30-20)/(B29*B29-13*B29+12)*SIN(10)*SIN(10)</f>
         <v>-3.3425158438956819E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B29" s="13">
         <v>5</v>
       </c>
-      <c r="C29" s="56"/>
+      <c r="C29" s="51"/>
       <c r="E29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B30" s="14">
         <v>20.001000000000001</v>
       </c>
-      <c r="C30" s="57"/>
+      <c r="C30" s="52"/>
       <c r="E30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="12"/>
-      <c r="C31" s="55">
+      <c r="C31" s="50">
         <f>SQRT(B33-20)/(B32*B32-13*B32+12)*SIN(B34)*SIN(B34)</f>
         <v>-5.5555555555555552E-2</v>
       </c>
@@ -1387,31 +1390,31 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B32" s="13">
         <v>3</v>
       </c>
-      <c r="C32" s="56"/>
+      <c r="C32" s="51"/>
       <c r="E32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="13">
         <v>21</v>
       </c>
-      <c r="C33" s="56"/>
+      <c r="C33" s="51"/>
       <c r="E33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
@@ -1419,46 +1422,46 @@
         <f>PI()/2</f>
         <v>1.5707963267948966</v>
       </c>
-      <c r="C34" s="57"/>
+      <c r="C34" s="52"/>
       <c r="E34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B35" s="12"/>
-      <c r="C35" s="55">
+      <c r="C35" s="50">
         <f>SQRT(B37-20)/(B36*B36-13*B36+12)*SIN(B38)*SIN(B38)</f>
         <v>-5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="13">
         <v>3</v>
       </c>
-      <c r="C36" s="56"/>
+      <c r="C36" s="51"/>
       <c r="E36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B37" s="13">
         <v>21</v>
       </c>
-      <c r="C37" s="56"/>
+      <c r="C37" s="51"/>
       <c r="E37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>22</v>
       </c>
@@ -1466,17 +1469,17 @@
         <f>-PI()/2</f>
         <v>-1.5707963267948966</v>
       </c>
-      <c r="C38" s="57"/>
+      <c r="C38" s="52"/>
       <c r="E38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B39" s="12"/>
-      <c r="C39" s="55">
+      <c r="C39" s="50">
         <f>SQRT(B41-20)/(B40*B40-13*B40+12)*SIN(10)*SIN(10)</f>
         <v>-26.907806990940291</v>
       </c>
@@ -1484,137 +1487,137 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B40" s="13">
         <v>1.0009999999999999</v>
       </c>
-      <c r="C40" s="56"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C40" s="51"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B41" s="14">
         <v>21</v>
       </c>
-      <c r="C41" s="57"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C41" s="52"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B42" s="12"/>
-      <c r="C42" s="55">
+      <c r="C42" s="50">
         <f>SQRT(B44-20)/(B43*B43-13*B43+12)*SIN(10)*SIN(10)</f>
         <v>26.902915107108168</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B43" s="13">
         <v>0.999</v>
       </c>
-      <c r="C43" s="56"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C43" s="51"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B44" s="14">
         <v>21</v>
       </c>
-      <c r="C44" s="57"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C44" s="52"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B45" s="12"/>
-      <c r="C45" s="55">
+      <c r="C45" s="50">
         <f>SQRT(B47-20)/(B46*B46-13*B46+12)*SIN(10)*SIN(10)</f>
         <v>-26.907806991009824</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B46" s="13">
         <v>11.999000000000001</v>
       </c>
-      <c r="C46" s="56"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C46" s="51"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="14">
         <v>21</v>
       </c>
-      <c r="C47" s="57"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C47" s="52"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B48" s="12"/>
-      <c r="C48" s="55">
+      <c r="C48" s="50">
         <f>SQRT(B50-20)/(B49*B49-13*B49+12)*SIN(10)*SIN(10)</f>
         <v>26.902915107125541</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B49" s="13">
         <v>12.000999999999999</v>
       </c>
-      <c r="C49" s="56"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="51"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B50" s="14">
         <v>21</v>
       </c>
-      <c r="C50" s="57"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="52"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B51" s="12"/>
-      <c r="C51" s="55">
+      <c r="C51" s="50">
         <f>SQRT(B53-20)/(B52*B52-13*B52+12)*SIN(B54)*SIN(B54)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B52" s="13">
         <v>3</v>
       </c>
-      <c r="C52" s="56"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C52" s="51"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B53" s="13">
         <v>21</v>
       </c>
-      <c r="C53" s="56"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="51"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>22</v>
       </c>
@@ -1622,17 +1625,10 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="C54" s="57"/>
+      <c r="C54" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C21:C23"/>
     <mergeCell ref="C42:C44"/>
     <mergeCell ref="C45:C47"/>
     <mergeCell ref="C51:C54"/>
@@ -1641,6 +1637,13 @@
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="C48:C50"/>
     <mergeCell ref="C35:C38"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C21:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1656,20 +1659,20 @@
       <selection activeCell="G12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="30.5546875" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
     <col min="4" max="5" width="4" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -1678,13 +1681,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="59" t="s">
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="F2" s="64" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="F2" s="62" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="21" t="s">
@@ -1694,13 +1697,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="35"/>
-      <c r="F3" s="64"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="21" t="s">
         <v>16</v>
       </c>
@@ -1708,7 +1711,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>56</v>
       </c>
@@ -1729,7 +1732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>55</v>
       </c>
@@ -1750,7 +1753,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>52</v>
       </c>
@@ -1771,7 +1774,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>20</v>
       </c>
@@ -1784,7 +1787,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
@@ -1796,456 +1799,456 @@
         <v>-3.2840563019222363E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="56" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>56</v>
       </c>
       <c r="B10" s="33">
         <v>1</v>
       </c>
-      <c r="C10" s="66"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="57"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="33">
         <v>5</v>
       </c>
-      <c r="C11" s="66"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="57"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="33">
         <v>5</v>
       </c>
-      <c r="C12" s="66"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="57"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="13">
         <v>1</v>
       </c>
-      <c r="C13" s="66"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="57"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="14">
         <v>21</v>
       </c>
-      <c r="C14" s="67"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="61"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <f>A9+1</f>
         <v>3</v>
       </c>
       <c r="B15" s="12"/>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="63" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="33">
         <v>1</v>
       </c>
-      <c r="C16" s="69"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="64"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>55</v>
       </c>
       <c r="B17" s="33">
         <v>5</v>
       </c>
-      <c r="C17" s="69"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="64"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>52</v>
       </c>
       <c r="B18" s="33">
         <v>5</v>
       </c>
-      <c r="C18" s="69"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="64"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="13">
         <v>12</v>
       </c>
-      <c r="C19" s="69"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="64"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="14">
         <v>21</v>
       </c>
-      <c r="C20" s="70"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="65"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <f>A15+1</f>
         <v>4</v>
       </c>
       <c r="B21" s="30"/>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="56" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>56</v>
       </c>
       <c r="B22" s="33">
         <v>1</v>
       </c>
-      <c r="C22" s="66"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="57"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>55</v>
       </c>
       <c r="B23" s="33">
         <v>5</v>
       </c>
-      <c r="C23" s="66"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="57"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="33">
         <v>5</v>
       </c>
-      <c r="C24" s="66"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C24" s="57"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="31">
         <v>5</v>
       </c>
-      <c r="C25" s="66"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="57"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="32">
         <v>19</v>
       </c>
-      <c r="C26" s="66"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C26" s="57"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <f>A21+1</f>
         <v>5</v>
       </c>
       <c r="B27" s="29"/>
-      <c r="C27" s="71" t="s">
+      <c r="C27" s="58" t="s">
         <v>50</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>49</v>
       </c>
       <c r="B28" s="41">
         <v>3</v>
       </c>
-      <c r="C28" s="72"/>
+      <c r="C28" s="59"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>51</v>
       </c>
       <c r="B29" s="33">
         <v>1</v>
       </c>
-      <c r="C29" s="72"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
         <v>52</v>
       </c>
       <c r="B30" s="33">
         <v>3</v>
       </c>
-      <c r="C30" s="72"/>
+      <c r="C30" s="59"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>53</v>
       </c>
       <c r="B31" s="33">
         <v>8</v>
       </c>
-      <c r="C31" s="72"/>
+      <c r="C31" s="59"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>54</v>
       </c>
       <c r="B32" s="42">
         <v>21</v>
       </c>
-      <c r="C32" s="73"/>
+      <c r="C32" s="60"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <f>A27+1</f>
         <v>6</v>
       </c>
       <c r="B33" s="29"/>
-      <c r="C33" s="71" t="s">
+      <c r="C33" s="58" t="s">
         <v>58</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
         <v>49</v>
       </c>
       <c r="B34" s="41">
         <v>1</v>
       </c>
-      <c r="C34" s="72"/>
+      <c r="C34" s="59"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
         <v>51</v>
       </c>
       <c r="B35" s="33">
         <v>5</v>
       </c>
-      <c r="C35" s="72"/>
+      <c r="C35" s="59"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
         <v>52</v>
       </c>
       <c r="B36" s="33">
         <v>0</v>
       </c>
-      <c r="C36" s="72"/>
+      <c r="C36" s="59"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
         <v>53</v>
       </c>
       <c r="B37" s="33">
         <v>8</v>
       </c>
-      <c r="C37" s="72"/>
+      <c r="C37" s="59"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
         <v>54</v>
       </c>
       <c r="B38" s="42">
         <v>21</v>
       </c>
-      <c r="C38" s="73"/>
+      <c r="C38" s="60"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A39" s="60" t="s">
+    <row r="39" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <f>A33+1</f>
         <v>7</v>
       </c>
       <c r="B40" s="12"/>
-      <c r="C40" s="65" t="s">
+      <c r="C40" s="56" t="s">
         <v>19</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>56</v>
       </c>
       <c r="B41" s="33">
         <v>1</v>
       </c>
-      <c r="C41" s="66"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C41" s="57"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
         <v>55</v>
       </c>
       <c r="B42" s="33">
         <v>5</v>
       </c>
-      <c r="C42" s="66"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C42" s="57"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>52</v>
       </c>
       <c r="B43" s="33">
         <v>5</v>
       </c>
-      <c r="C43" s="66"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C43" s="57"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B44" s="13">
         <v>5</v>
       </c>
-      <c r="C44" s="66"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C44" s="57"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B45" s="14">
         <v>19.998999999999999</v>
       </c>
-      <c r="C45" s="67"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C45" s="61"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <f>A40+1</f>
         <v>8</v>
       </c>
       <c r="B46" s="12"/>
-      <c r="C46" s="65">
+      <c r="C46" s="56">
         <f>SQRT(B51-20)/(B50*B50-13*B50+12)*SIN(1)*SIN(1)</f>
         <v>-7.9968741155962253E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
         <v>56</v>
       </c>
       <c r="B47" s="33">
         <v>1</v>
       </c>
-      <c r="C47" s="66"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C47" s="57"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
         <v>55</v>
       </c>
       <c r="B48" s="33">
         <v>5</v>
       </c>
-      <c r="C48" s="66"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C48" s="57"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
         <v>52</v>
       </c>
       <c r="B49" s="33">
         <v>2</v>
       </c>
-      <c r="C49" s="66">
+      <c r="C49" s="57">
         <f>SQRT(B51-20)/(B50*B50-13*B50+12)*SIN(5)*SIN(5)</f>
         <v>-1.0385097878310217E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B50" s="13">
         <v>5</v>
       </c>
-      <c r="C50" s="66"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="57"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B51" s="14">
         <v>20.001000000000001</v>
       </c>
-      <c r="C51" s="67"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C51" s="61"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <f>A46+1</f>
         <v>9</v>
       </c>
       <c r="B52" s="12"/>
-      <c r="C52" s="65">
+      <c r="C52" s="56">
         <f>SQRT(B57-20)/(B56*B56-13*B56+12)*SIN(B53)*SIN(B54)</f>
         <v>-5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>56</v>
       </c>
@@ -2253,9 +2256,9 @@
         <f>PI()/2</f>
         <v>1.5707963267948966</v>
       </c>
-      <c r="C53" s="66"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="57"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
         <v>55</v>
       </c>
@@ -2263,47 +2266,47 @@
         <f>PI()/2</f>
         <v>1.5707963267948966</v>
       </c>
-      <c r="C54" s="66"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C54" s="57"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="43" t="s">
         <v>57</v>
       </c>
       <c r="B55" s="33">
         <v>1</v>
       </c>
-      <c r="C55" s="66"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C55" s="57"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B56" s="13">
         <v>3</v>
       </c>
-      <c r="C56" s="66"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C56" s="57"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B57" s="13">
         <v>21</v>
       </c>
-      <c r="C57" s="67"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C57" s="61"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <f>A52+1</f>
         <v>10</v>
       </c>
       <c r="B58" s="12"/>
-      <c r="C58" s="65">
+      <c r="C58" s="56">
         <f>SQRT(B63-20)/(B62*B62-13*B62+12)*SIN(B59)*SIN(B60)</f>
         <v>-5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
         <v>56</v>
       </c>
@@ -2311,9 +2314,9 @@
         <f>-PI()/2</f>
         <v>-1.5707963267948966</v>
       </c>
-      <c r="C59" s="66"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C59" s="57"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
         <v>55</v>
       </c>
@@ -2321,36 +2324,36 @@
         <f>-PI()/2</f>
         <v>-1.5707963267948966</v>
       </c>
-      <c r="C60" s="66"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C60" s="57"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
         <v>57</v>
       </c>
       <c r="B61" s="33">
         <v>1</v>
       </c>
-      <c r="C61" s="66"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C61" s="57"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B62" s="13">
         <v>3</v>
       </c>
-      <c r="C62" s="66"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C62" s="57"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B63" s="13">
         <v>21</v>
       </c>
-      <c r="C63" s="67"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C63" s="61"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
         <f>A58+1</f>
         <v>11</v>
@@ -2358,7 +2361,7 @@
       <c r="B64" s="12"/>
       <c r="C64" s="46"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="26" t="s">
         <v>56</v>
       </c>
@@ -2370,7 +2373,7 @@
         <v>-64.376163130619759</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="26" t="s">
         <v>55</v>
       </c>
@@ -2382,7 +2385,7 @@
         <v>-75.172452989539138</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
         <v>57</v>
       </c>
@@ -2394,7 +2397,7 @@
         <v>-1.8106061164487897</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>20</v>
       </c>
@@ -2406,7 +2409,7 @@
         <v>-52.072917256514238</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>21</v>
       </c>
@@ -2418,7 +2421,7 @@
         <v>-83.601760572631719</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <f>A64+1</f>
         <v>12</v>
@@ -2426,7 +2429,7 @@
       <c r="B70" s="12"/>
       <c r="C70" s="44"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="26" t="s">
         <v>56</v>
       </c>
@@ -2438,7 +2441,7 @@
         <v>64.364459437646985</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="26" t="s">
         <v>55</v>
       </c>
@@ -2450,7 +2453,7 @@
         <v>75.15878651320665</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
         <v>57</v>
       </c>
@@ -2462,7 +2465,7 @@
         <v>1.8102769452610232</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>20</v>
       </c>
@@ -2474,7 +2477,7 @@
         <v>52.063450313998104</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>21</v>
       </c>
@@ -2486,7 +2489,7 @@
         <v>83.586561634233661</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="16">
         <f>A70+1</f>
         <v>13</v>
@@ -2494,7 +2497,7 @@
       <c r="B76" s="12"/>
       <c r="C76" s="44"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="26" t="s">
         <v>56</v>
       </c>
@@ -2506,7 +2509,7 @@
         <v>-64.376163130786111</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="26" t="s">
         <v>55</v>
       </c>
@@ -2518,7 +2521,7 @@
         <v>-75.172452989733387</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="26" t="s">
         <v>57</v>
       </c>
@@ -2530,7 +2533,7 @@
         <v>-1.8106061164534684</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>20</v>
       </c>
@@ -2542,7 +2545,7 @@
         <v>-52.072917256648807</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>21</v>
       </c>
@@ -2554,7 +2557,7 @@
         <v>-83.601760572847752</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="16">
         <f>A76+1</f>
         <v>14</v>
@@ -2562,7 +2565,7 @@
       <c r="B82" s="12"/>
       <c r="C82" s="44"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="26" t="s">
         <v>56</v>
       </c>
@@ -2574,7 +2577,7 @@
         <v>64.364459437688552</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="26" t="s">
         <v>55</v>
       </c>
@@ -2586,7 +2589,7 @@
         <v>75.158786513255194</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
         <v>57</v>
       </c>
@@ -2598,7 +2601,7 @@
         <v>1.8102769452621923</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>20</v>
       </c>
@@ -2610,7 +2613,7 @@
         <v>52.063450314031726</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>21</v>
       </c>
@@ -2622,18 +2625,18 @@
         <v>83.586561634287634</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="16">
         <f>A82+1</f>
         <v>15</v>
       </c>
       <c r="B88" s="12"/>
-      <c r="C88" s="65">
+      <c r="C88" s="56">
         <f>SQRT(B93-20)/(B92*B92-13*B92+12)*SIN(B89)*SIN(B89)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
         <v>56</v>
       </c>
@@ -2641,46 +2644,51 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="C89" s="66"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C89" s="57"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
         <v>55</v>
       </c>
       <c r="B90" s="33">
         <v>0</v>
       </c>
-      <c r="C90" s="66"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C90" s="57"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
         <v>57</v>
       </c>
       <c r="B91" s="33">
         <v>1</v>
       </c>
-      <c r="C91" s="66"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C91" s="57"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B92" s="13">
         <v>3</v>
       </c>
-      <c r="C92" s="66"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C92" s="57"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B93" s="32">
         <v>21</v>
       </c>
-      <c r="C93" s="67"/>
+      <c r="C93" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="C15:C20"/>
     <mergeCell ref="C21:C26"/>
     <mergeCell ref="C27:C32"/>
     <mergeCell ref="C88:C93"/>
@@ -2691,11 +2699,6 @@
     <mergeCell ref="C46:C48"/>
     <mergeCell ref="C49:C51"/>
     <mergeCell ref="C33:C38"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="C15:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2705,527 +2708,551 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
     <col min="7" max="7" width="49" customWidth="1"/>
-    <col min="8" max="8" width="45.88671875" customWidth="1"/>
+    <col min="8" max="8" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="47"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="66" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="66" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="66" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="66" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="66" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="66"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="52" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="54" t="s">
+      <c r="B11" s="66"/>
+      <c r="C11" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="61"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="61"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="61"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="75" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="61"/>
+      <c r="D22" s="75"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="75"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="75"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="61"/>
+      <c r="D25" s="75"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="75"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="75"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="61"/>
+      <c r="D28" s="75"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="75"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="75"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="61"/>
+      <c r="D31" s="75"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="75"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="75"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="61"/>
+      <c r="D34" s="75"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="75"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="75"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="61"/>
+      <c r="D37" s="75"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="75"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="75"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="61"/>
+      <c r="D40" s="75"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="61"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="61"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
+    </row>
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="61"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="66"/>
+      <c r="C50" s="66"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="50" t="s">
+      <c r="C51" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B52" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="74" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="65" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="67"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="75" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="75"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="75"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="75"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="75"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="75"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="75"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="75"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="75"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="75"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="67"/>
-      <c r="D31" s="75"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="75"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="75"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="67"/>
-      <c r="D34" s="75"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="75"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="75"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="67"/>
-      <c r="D37" s="75"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="75"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="75"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="67"/>
-      <c r="D40" s="75"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="65" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="67"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-    </row>
-    <row r="45" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="65" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="67"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-    </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="B48" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="D48" s="74" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" s="67"/>
-      <c r="D49" s="74"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="74"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C48:C49"/>
+  <mergeCells count="17">
+    <mergeCell ref="C51:C52"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D51:D52"/>
     <mergeCell ref="D21:D40"/>
+    <mergeCell ref="C48:C49"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C36:C37"/>
@@ -3233,6 +3260,10 @@
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C24:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
